--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\AMO Tools\Dashboard - VERIFI\Data Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{013BDDAC-5B8C-4406-AD31-68A4594E1678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="F+1QkVH6uwlgjFH4nZhlJlf2hFPHGuSd4G1I16Xf6aaHJ+fTIM2jmGVbk5Knwl4W1k7v9JkwUx1Q9nsFZYxd/w==" workbookSaltValue="Kmj6OHG69f139UN7LGGJHQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA2E5A-AD7F-4F13-8B77-E2226AA680CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
     <sheet name="Meters-Utilities" sheetId="4" r:id="rId2"/>
     <sheet name="Electricity" sheetId="6" r:id="rId3"/>
     <sheet name="Non-electricity" sheetId="5" r:id="rId4"/>
-    <sheet name="HIDE" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Predictors" sheetId="9" r:id="rId5"/>
+    <sheet name="HIDE" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="ElectricityFuel">HIDE!$E$18</definedName>
@@ -29,7 +29,7 @@
     <definedName name="NaturalGasunits">HIDE!$B$52:$B$64</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
-    <definedName name="OtherEnergyunits">HIDE!$F$52:$F$64</definedName>
+    <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
     <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$64</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
@@ -48,7 +48,7 @@
     <definedName name="WaterSLG">HIDE!$E$12</definedName>
     <definedName name="Waterunits">HIDE!$G$52:$G$55</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
   <si>
     <t>Meter Number</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Nm3</t>
   </si>
   <si>
-    <t>MMBTu</t>
-  </si>
-  <si>
     <t>tons</t>
   </si>
   <si>
@@ -498,12 +495,36 @@
   </si>
   <si>
     <t>Sources</t>
+  </si>
+  <si>
+    <t>MMBTU</t>
+  </si>
+  <si>
+    <t>gal-F</t>
+  </si>
+  <si>
+    <t>ton-hr</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>Predictor3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -989,6 +1010,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,9 +1087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1076,7 +1105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609599" y="361950"/>
-          <a:ext cx="12833350" cy="6362700"/>
+          <a:ext cx="12830175" cy="7210425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1127,6 +1156,15 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> template is used both for setting up an initial data upload and for updating VERIFI each month, if you choose not to enter data manually within VERIFI. When uploading, you will be able to either replace your existing data (if you changed or updated some value entered previously) or ignore existing data and only upload what is new.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This worksheet is password protected to protect the column names.  If you need to unlock it to modify the column widths or other things to better match your facility, the password is "VERIFI" but PLEASE do not change the column names (with the exception of the Predictors tab) as that will break VERIFI's ability to import data from this template.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
         <a:p>
@@ -1308,6 +1346,21 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t>This tab is where you enter data for any other utility you wish to track, just be sure to have the correct meter number for each row.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Predictors</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>This tab is where you enter data pertaining to any predictors for correlation or regression analysis (weather data, production data, etc.).  On this tab, you can change the column names to match your facility (with the exception of "Date")</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1617,12 +1670,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <sheetProtection algorithmName="SHA-512" hashValue="/c7y3BBb3XiGNjaKmFRJfTDF6/chhUwTa7Oh1PZqSr+4BhvqBbdJJx0jLnvsu0/AwUCbEcFJ9XVmfyM9Bq+kuA==" saltValue="szmZa2/IpY7/dYhmqqccUA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="+j/LUuc75Pyo4KzhrpkVGkDcHNvi1nbJnEAlC4kMemcZ4tbRn5pO3xJgrg3+MWoAZV2qA60pRHKcQFSsBtTU0w==" saltValue="us7YpYgy6P2SfZ7DAZ5chA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1633,24 +1686,25 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1746,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HewrPq+G7xrREWgahqw4KECRmWlduqN5/uU7r221AsqekTWwYjtzfl1l2yrfAXZqEsS8qTrKjh9MC6vn8wpMnA==" saltValue="/GnEKEmrBd6fASME4aPqyg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Oa6FUWb1LNh4fqGDLKRbjgvJ0DR6K726XiWg5i9vEKr2P+0Hj+hSJ2mG/U+yokCfIcMkZ2oHMc04lWhsNdFSvQ==" saltValue="O04A5Gke2Qf8tjb54319mQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Sources</formula1>
@@ -1716,28 +1770,28 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16" width="11.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" customWidth="1"/>
-    <col min="20" max="24" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16" width="11.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="11.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1808,8 +1862,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FKeZb/tRedkDauLxn5RJf8qZQXRzMIxQ7SO36qcoxUIpiHA9iInYkIYwvMc+1r+y6Son++dY6lS5OI6jppljXQ==" saltValue="Rp6wAACEr7FqlW+SR2rxiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dANAtv2Wkc6L0I7KV6MvSh6WAFQBkjKJUZOIG64VLnlVTPL7cWMjakdwWEp4UEePUC8lqCtgY28x7q+k3zyg7A==" saltValue="wufavQG4Wd8gSLrPO+k7zg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1818,23 +1873,25 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C1" t="s">
@@ -1854,383 +1911,420 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4/ocRpciuzXg72nUcMQZcRUBZX1RQsvR7pdcjhJJE8J1rf/W5ks/d5MarxIl3z+V1sGSHKCz8qgQOMpTeRGkA==" saltValue="G/JWaDdVBS7iw9Dsyri/HA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gi0ackw9LJ66nLQXDN6fzBMg+QTmhbCUyrmAgzUiwyoC0ka/ipjq8eMwMcGO62n+NR75KT/iTlmU+DuAWjg7rA==" saltValue="RD7/ZZYvJj7xJue/opeydw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C580699A-D75E-4771-B742-42694586E774}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hEJYitYbSasUc4EEmNj0+GQijzQul14A7pc8Q42BRwdqD0EgakX8CNyNZFCGaUmN/u2E9upTwi19RydZ/7PGEw==" saltValue="vyout2A3FD2Se4iyhQgg7A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>122</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>123</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>136</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>138</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>139</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>140</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>141</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>142</v>
       </c>
-      <c r="I17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>96</v>
       </c>
-      <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
         <v>130</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" t="s">
         <v>131</v>
       </c>
-      <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E51" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>132</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>133</v>
       </c>
-      <c r="I51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2259,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2288,165 +2382,165 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="H55" t="s">
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="I55" t="s">
+      <c r="C56" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>63</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>63</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>64</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>64</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>64</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>65</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>65</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>65</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>66</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>66</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>66</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>66</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -2463,7 +2557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -2480,24 +2574,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>51</v>
       </c>
@@ -2505,13 +2599,23 @@
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\AMO Tools\Dashboard - VERIFI\Data Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CA2E5A-AD7F-4F13-8B77-E2226AA680CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED13D9-3C07-4DBD-9F85-E8983DDC5B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="WaterSLG">HIDE!$E$12</definedName>
     <definedName name="Waterunits">HIDE!$G$52:$G$55</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -497,9 +497,6 @@
     <t>Sources</t>
   </si>
   <si>
-    <t>MMBTU</t>
-  </si>
-  <si>
     <t>gal-F</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>Predictor3</t>
+  </si>
+  <si>
+    <t>MMBtu</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1010,14 +1010,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1935,16 +1935,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +1959,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2384,22 +2384,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
         <v>57</v>
@@ -2610,12 +2610,12 @@
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\AMO Tools\Dashboard - VERIFI\Data Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED13D9-3C07-4DBD-9F85-E8983DDC5B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C6007D-AEAD-469E-8144-26B95A7BD993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="Electricityunits">HIDE!$A$52:$A$60</definedName>
     <definedName name="NaturalGasFuel">HIDE!$F$18</definedName>
     <definedName name="NaturalGasSLG">HIDE!$D$12</definedName>
-    <definedName name="NaturalGasunits">HIDE!$B$52:$B$64</definedName>
+    <definedName name="NaturalGasunits">HIDE!$B$52:$B$65</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
     <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
-    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$64</definedName>
+    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$65</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
     <definedName name="OtherFuelsLiquidunits">HIDE!$D$52:$D$64</definedName>
     <definedName name="OtherFuelsSLG">HIDE!$A$12:$A$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>Meter Number</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>MMBtu</t>
+  </si>
+  <si>
+    <t>MCF</t>
   </si>
 </sst>
 </file>
@@ -1669,15 +1672,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE50A05-F3FD-4276-B756-550777F28C99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="+j/LUuc75Pyo4KzhrpkVGkDcHNvi1nbJnEAlC4kMemcZ4tbRn5pO3xJgrg3+MWoAZV2qA60pRHKcQFSsBtTU0w==" saltValue="us7YpYgy6P2SfZ7DAZ5chA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1685,26 +1689,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1762,6 +1766,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1773,21 +1778,21 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
-    <col min="6" max="16" width="11.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.08984375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7265625" style="1" customWidth="1"/>
-    <col min="20" max="24" width="11.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16" width="11.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="1" customWidth="1"/>
+    <col min="20" max="24" width="11.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1876,18 +1881,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1925,15 +1930,15 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="2" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>146</v>
       </c>
@@ -1958,53 +1963,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -2027,22 +2032,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2104,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2113,7 +2118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2163,7 +2168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2190,112 +2195,112 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2440,7 +2445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2480,7 +2485,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -2574,7 +2579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>58</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>51</v>
       </c>
@@ -2608,12 +2613,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
       <c r="F65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>145</v>
       </c>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\AMO Tools\Dashboard - VERIFI\Data Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C6007D-AEAD-469E-8144-26B95A7BD993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED13D9-3C07-4DBD-9F85-E8983DDC5B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2145" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="Electricityunits">HIDE!$A$52:$A$60</definedName>
     <definedName name="NaturalGasFuel">HIDE!$F$18</definedName>
     <definedName name="NaturalGasSLG">HIDE!$D$12</definedName>
-    <definedName name="NaturalGasunits">HIDE!$B$52:$B$65</definedName>
+    <definedName name="NaturalGasunits">HIDE!$B$52:$B$64</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
     <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
-    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$65</definedName>
+    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$64</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
     <definedName name="OtherFuelsLiquidunits">HIDE!$D$52:$D$64</definedName>
     <definedName name="OtherFuelsSLG">HIDE!$A$12:$A$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="151">
   <si>
     <t>Meter Number</t>
   </si>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>MMBtu</t>
-  </si>
-  <si>
-    <t>MCF</t>
   </si>
 </sst>
 </file>
@@ -1672,16 +1669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE50A05-F3FD-4276-B756-550777F28C99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <sheetProtection algorithmName="SHA-512" hashValue="+j/LUuc75Pyo4KzhrpkVGkDcHNvi1nbJnEAlC4kMemcZ4tbRn5pO3xJgrg3+MWoAZV2qA60pRHKcQFSsBtTU0w==" saltValue="us7YpYgy6P2SfZ7DAZ5chA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1689,26 +1685,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1762,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1778,21 +1773,21 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16" width="11.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="1" customWidth="1"/>
-    <col min="20" max="24" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="16" width="11.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" style="1" customWidth="1"/>
+    <col min="20" max="24" width="11.1796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,18 +1876,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1930,15 +1925,15 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="2" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>146</v>
       </c>
@@ -1963,53 +1958,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -2032,22 +2027,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>134</v>
       </c>
@@ -2076,7 +2071,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -2090,7 +2085,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2104,7 +2099,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -2118,7 +2113,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -2132,7 +2127,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -2146,7 +2141,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -2179,7 +2174,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -2187,7 +2182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -2195,112 +2190,112 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -2329,7 +2324,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2387,7 +2382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2416,7 +2411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2445,7 +2440,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2465,7 +2460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -2505,7 +2500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -2525,7 +2520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>51</v>
       </c>
@@ -2562,7 +2557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -2579,7 +2574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>58</v>
       </c>
@@ -2596,7 +2591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>51</v>
       </c>
@@ -2613,18 +2608,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" t="s">
-        <v>151</v>
-      </c>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
         <v>145</v>
       </c>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\OneDrive - Intertech\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E8A27-35FA-4E67-AE2B-5E01B0089F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E37D5DE-0784-44B3-AD3E-22582A43BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="638">
   <si>
     <t>Meter Number</t>
   </si>
@@ -2529,7 +2529,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2559,13 +2559,8 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2612,18 +2607,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2645,13 +2647,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2707,147 +2702,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3529,7 +3384,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6171,7 +6026,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:K200">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>$A2 = ""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6199,15 +6054,18 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="12" max="19" width="14.140625" customWidth="1"/>
+    <col min="12" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" customWidth="1"/>
+    <col min="18" max="19" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -10470,34 +10328,44 @@
       <c r="S201" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:S201">
-    <cfRule type="expression" dxfId="21" priority="8">
-      <formula>$D2 &lt;&gt; "Electricity"</formula>
+  <conditionalFormatting sqref="S2:S201">
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>OR($D2&lt;&gt;"Electricity",$Q2 = "Grid")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J201">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$D2 &lt;&gt; "Other Fuels"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K201">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>AND($D2 &lt;&gt; "Other Fuels", $D2 &lt;&gt; "Other Energy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M201">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>OR($L2 = "kWh", $L2 = "MWh", $L2 = "MMBtu", $L2 = "GJ", $L2 = "MJ", $L2 = "kJ", $L2 = "Therms", $L2 = "Dtherms", $L2 = "kcal")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:N201">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>OR($D2 = "Water", $D2 = "Waste Water", $D2 = "Other Utility")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:S201">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>AND($A2 = "", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $L2 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q201">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$D2&lt;&gt;"Electricity"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R201">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>OR($D2&lt;&gt;"Electricity",AND($Q2 &lt;&gt; "Self-Generated", $Q2 &lt;&gt; "Physical Power Purchase Agreement (PPPA)"))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
@@ -10537,10 +10405,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10570,67 +10438,67 @@
       <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="7" t="s">
         <v>625</v>
       </c>
       <c r="X1" s="7" t="s">
@@ -10643,14 +10511,147 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:Z1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="A35:Z1048576 D3:Z34">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C34">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>OR($A2="", $B2="", $C2="")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1048576 A2" xr:uid="{A5D6CFAD-FFF2-473C-AF74-3D44E76D2FD2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576 B3:C34" xr:uid="{A5D6CFAD-FFF2-473C-AF74-3D44E76D2FD2}">
       <formula1>Names_Meters</formula1>
     </dataValidation>
   </dataValidations>
@@ -10704,25 +10705,25 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:L1048576">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>OR($A2="", $B2="", $C2="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10742,7 +10743,7 @@
   <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10756,21 +10757,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:AA1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR($A2="", $B2="", $C2="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:AA1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C$1 = ""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10789,8 +10790,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10938,9 +10939,6 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>154</v>
       </c>
       <c r="M8" t="s">
         <v>165</v>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\OneDrive - Intertech\Documents\ORNL\VERIFI\src\assets\csv_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E37D5DE-0784-44B3-AD3E-22582A43BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E860086-20C7-44C9-9CB8-C0FE45282CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-21750" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -75,10 +75,10 @@
     <definedName name="States">HIDE!$O$2:$O$61</definedName>
     <definedName name="WasteWaterFuel">HIDE!$H$18</definedName>
     <definedName name="WasteWaterSLG">HIDE!$F$12</definedName>
-    <definedName name="WasteWaterunits">HIDE!$H$52:$H$55</definedName>
+    <definedName name="WasteWaterunits">HIDE!$H$52:$H$56</definedName>
     <definedName name="WaterFuel">HIDE!$G$18</definedName>
     <definedName name="WaterSLG">HIDE!$E$12</definedName>
-    <definedName name="Waterunits">HIDE!$G$52:$G$55</definedName>
+    <definedName name="Waterunits">HIDE!$G$52:$G$56</definedName>
     <definedName name="YesNo">HIDE!$B$77:$B$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="639">
   <si>
     <t>Meter Number</t>
   </si>
@@ -2010,6 +2010,9 @@
   </si>
   <si>
     <t>Lao People"s Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>kgal</t>
   </si>
 </sst>
 </file>
@@ -2913,7 +2916,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned number to keep all your energy uses separate.</a:t>
+            <a:t> is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned number to keep all your energy uses separate. THIS IS REQUIRED.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3370,7 +3373,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3387,22 +3390,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>133</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
@@ -3450,7 +3453,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
@@ -3463,7 +3466,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -3476,7 +3479,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
@@ -3489,7 +3492,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
@@ -3502,7 +3505,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -3515,7 +3518,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -3528,7 +3531,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
@@ -3541,7 +3544,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
@@ -3554,7 +3557,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
@@ -3567,7 +3570,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
@@ -3580,7 +3583,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -3593,7 +3596,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -3606,7 +3609,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
@@ -3619,7 +3622,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
@@ -3632,7 +3635,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -3645,7 +3648,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
@@ -3658,7 +3661,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -3671,7 +3674,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -3684,7 +3687,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
@@ -3697,7 +3700,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -3710,7 +3713,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -3723,7 +3726,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -3736,7 +3739,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
@@ -3749,7 +3752,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
@@ -3762,7 +3765,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
@@ -3775,7 +3778,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
@@ -3788,7 +3791,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
@@ -3801,7 +3804,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
@@ -3814,7 +3817,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
@@ -3827,7 +3830,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
@@ -3840,7 +3843,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -3853,7 +3856,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
@@ -3866,7 +3869,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
@@ -3879,7 +3882,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
@@ -3892,7 +3895,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
@@ -3905,7 +3908,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
@@ -3918,7 +3921,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
@@ -3931,7 +3934,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
@@ -3944,7 +3947,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
@@ -3957,7 +3960,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
@@ -3970,7 +3973,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -3983,7 +3986,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -3996,7 +3999,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
@@ -4009,7 +4012,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -4022,7 +4025,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
@@ -4035,7 +4038,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
@@ -4048,7 +4051,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
@@ -4061,7 +4064,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -4074,7 +4077,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -4087,7 +4090,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -4100,7 +4103,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
@@ -4113,7 +4116,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
@@ -4126,7 +4129,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
@@ -4139,7 +4142,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
@@ -4152,7 +4155,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
@@ -4165,7 +4168,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
@@ -4178,7 +4181,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
@@ -4191,7 +4194,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
@@ -4204,7 +4207,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
@@ -4217,7 +4220,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
@@ -4230,7 +4233,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
@@ -4243,7 +4246,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
@@ -4256,7 +4259,7 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -4269,7 +4272,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
@@ -4282,7 +4285,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
@@ -4295,7 +4298,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -4308,7 +4311,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="3"/>
@@ -4321,7 +4324,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="3"/>
@@ -4334,7 +4337,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="3"/>
@@ -4347,7 +4350,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="3"/>
@@ -4360,7 +4363,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
@@ -4373,7 +4376,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="3"/>
@@ -4386,7 +4389,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="3"/>
@@ -4399,7 +4402,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="3"/>
@@ -4412,7 +4415,7 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="3"/>
@@ -4425,7 +4428,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="3"/>
@@ -4438,7 +4441,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="3"/>
@@ -4451,7 +4454,7 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="3"/>
@@ -4464,7 +4467,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="3"/>
@@ -4477,7 +4480,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="3"/>
@@ -4490,7 +4493,7 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="3"/>
@@ -4503,7 +4506,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="3"/>
@@ -4516,7 +4519,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="3"/>
@@ -4529,7 +4532,7 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -4542,7 +4545,7 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -4555,7 +4558,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="3"/>
@@ -4568,7 +4571,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="3"/>
@@ -4581,7 +4584,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -4594,7 +4597,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -4607,7 +4610,7 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="3"/>
@@ -4620,7 +4623,7 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="3"/>
@@ -4633,7 +4636,7 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="3"/>
@@ -4646,7 +4649,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="3"/>
@@ -4659,7 +4662,7 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="3"/>
@@ -4672,7 +4675,7 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="3"/>
@@ -4685,7 +4688,7 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="3"/>
@@ -4698,7 +4701,7 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="3"/>
@@ -4711,7 +4714,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="3"/>
@@ -4724,7 +4727,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="3"/>
@@ -4737,7 +4740,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="3"/>
@@ -4750,7 +4753,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="3"/>
@@ -4763,7 +4766,7 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="3"/>
@@ -4776,7 +4779,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="3"/>
@@ -4789,7 +4792,7 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="3"/>
@@ -4802,7 +4805,7 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="3"/>
@@ -4815,7 +4818,7 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -4828,7 +4831,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="3"/>
@@ -4841,7 +4844,7 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="3"/>
@@ -4854,7 +4857,7 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="3"/>
@@ -4867,7 +4870,7 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="3"/>
@@ -4880,7 +4883,7 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4893,7 +4896,7 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="3"/>
@@ -4906,7 +4909,7 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="3"/>
@@ -4919,7 +4922,7 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="3"/>
@@ -4932,7 +4935,7 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="3"/>
@@ -4945,7 +4948,7 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="3"/>
@@ -4958,7 +4961,7 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="3"/>
@@ -4971,7 +4974,7 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="3"/>
@@ -4984,7 +4987,7 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3"/>
@@ -4997,7 +5000,7 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3"/>
@@ -5010,7 +5013,7 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3"/>
@@ -5023,7 +5026,7 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3"/>
@@ -5036,7 +5039,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="3"/>
@@ -5049,7 +5052,7 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3"/>
@@ -5062,7 +5065,7 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="3"/>
@@ -5075,7 +5078,7 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3"/>
@@ -5088,7 +5091,7 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -5101,7 +5104,7 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="3"/>
@@ -5114,7 +5117,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="3"/>
@@ -5127,7 +5130,7 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="3"/>
@@ -5140,7 +5143,7 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="3"/>
@@ -5153,7 +5156,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="3"/>
@@ -5166,7 +5169,7 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -5179,7 +5182,7 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="3"/>
@@ -5192,7 +5195,7 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="3"/>
@@ -5205,7 +5208,7 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="3"/>
@@ -5218,7 +5221,7 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="3"/>
@@ -5231,7 +5234,7 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="3"/>
@@ -5244,7 +5247,7 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="3"/>
@@ -5257,7 +5260,7 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="3"/>
@@ -5270,7 +5273,7 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="3"/>
@@ -5283,7 +5286,7 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="3"/>
@@ -5296,7 +5299,7 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="3"/>
@@ -5309,7 +5312,7 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="3"/>
@@ -5322,7 +5325,7 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="3"/>
@@ -5335,7 +5338,7 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="3"/>
@@ -5348,7 +5351,7 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="3"/>
@@ -5361,7 +5364,7 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -5374,7 +5377,7 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="3"/>
@@ -5387,7 +5390,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="3"/>
@@ -5400,7 +5403,7 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="3"/>
@@ -5413,7 +5416,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="3"/>
@@ -5426,7 +5429,7 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="3"/>
@@ -5439,7 +5442,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="3"/>
@@ -5452,7 +5455,7 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -5465,7 +5468,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="3"/>
@@ -5478,7 +5481,7 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="3"/>
@@ -5491,7 +5494,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="3"/>
@@ -5504,7 +5507,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="3"/>
@@ -5517,7 +5520,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="3"/>
@@ -5530,7 +5533,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="3"/>
@@ -5543,7 +5546,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="3"/>
@@ -5556,7 +5559,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="3"/>
@@ -5569,7 +5572,7 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="3"/>
@@ -5582,7 +5585,7 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="3"/>
@@ -5595,7 +5598,7 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="3"/>
@@ -5608,7 +5611,7 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="3"/>
@@ -5621,7 +5624,7 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="3"/>
@@ -5634,7 +5637,7 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5647,7 +5650,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5660,7 +5663,7 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="3"/>
@@ -5673,7 +5676,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="3"/>
@@ -5686,7 +5689,7 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="3"/>
@@ -5699,7 +5702,7 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="3"/>
@@ -5712,7 +5715,7 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="3"/>
@@ -5725,7 +5728,7 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="3"/>
@@ -5738,7 +5741,7 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5751,7 +5754,7 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5764,7 +5767,7 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="3"/>
@@ -5777,7 +5780,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="3"/>
@@ -5790,7 +5793,7 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="3"/>
@@ -5803,7 +5806,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="3"/>
@@ -5816,7 +5819,7 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="3"/>
@@ -5829,7 +5832,7 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="3"/>
@@ -5842,7 +5845,7 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="3"/>
@@ -5855,7 +5858,7 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="3"/>
@@ -5868,7 +5871,7 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="3"/>
@@ -5881,7 +5884,7 @@
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="3"/>
@@ -5894,7 +5897,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="3"/>
@@ -5907,7 +5910,7 @@
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="3"/>
@@ -5920,7 +5923,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="3"/>
@@ -5933,7 +5936,7 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="3"/>
@@ -5946,7 +5949,7 @@
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="3"/>
@@ -5959,7 +5962,7 @@
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="3"/>
@@ -5972,7 +5975,7 @@
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="3"/>
@@ -5985,7 +5988,7 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="3"/>
@@ -5998,7 +6001,7 @@
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="3"/>
@@ -6011,7 +6014,7 @@
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="3"/>
@@ -6055,20 +6058,20 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="12" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="41.140625" customWidth="1"/>
-    <col min="18" max="19" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="1" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" customWidth="1"/>
+    <col min="12" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="41.1796875" customWidth="1"/>
+    <col min="18" max="19" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>133</v>
       </c>
@@ -6127,7 +6130,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6148,7 +6151,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6169,7 +6172,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6190,7 +6193,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6211,7 +6214,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6232,7 +6235,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6253,7 +6256,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6274,7 +6277,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6295,7 +6298,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6316,7 +6319,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6337,7 +6340,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6358,7 +6361,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6379,7 +6382,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6400,7 +6403,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6421,7 +6424,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6442,7 +6445,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6463,7 +6466,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6484,7 +6487,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6505,7 +6508,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6526,7 +6529,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6547,7 +6550,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6568,7 +6571,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6589,7 +6592,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6610,7 +6613,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6631,7 +6634,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6652,7 +6655,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6673,7 +6676,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6694,7 +6697,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6715,7 +6718,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6736,7 +6739,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6757,7 +6760,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6778,7 +6781,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6799,7 +6802,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6820,7 +6823,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6841,7 +6844,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6862,7 +6865,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6883,7 +6886,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6904,7 +6907,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6925,7 +6928,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6946,7 +6949,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6967,7 +6970,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6988,7 +6991,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7009,7 +7012,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7030,7 +7033,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7051,7 +7054,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7072,7 +7075,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7093,7 +7096,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7114,7 +7117,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7135,7 +7138,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7156,7 +7159,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7177,7 +7180,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7198,7 +7201,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7219,7 +7222,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7240,7 +7243,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7261,7 +7264,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7282,7 +7285,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7303,7 +7306,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7324,7 +7327,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7345,7 +7348,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7366,7 +7369,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7387,7 +7390,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7408,7 +7411,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7429,7 +7432,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7450,7 +7453,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7471,7 +7474,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7492,7 +7495,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7513,7 +7516,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7534,7 +7537,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7555,7 +7558,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7576,7 +7579,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7597,7 +7600,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7618,7 +7621,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7639,7 +7642,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7660,7 +7663,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7681,7 +7684,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -7702,7 +7705,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -7723,7 +7726,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -7744,7 +7747,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7765,7 +7768,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -7786,7 +7789,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7807,7 +7810,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7828,7 +7831,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7849,7 +7852,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -7870,7 +7873,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -7891,7 +7894,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7912,7 +7915,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7933,7 +7936,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7954,7 +7957,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7975,7 +7978,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -7996,7 +7999,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8017,7 +8020,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8038,7 +8041,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8059,7 +8062,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8080,7 +8083,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8101,7 +8104,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8122,7 +8125,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8143,7 +8146,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8164,7 +8167,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8185,7 +8188,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8206,7 +8209,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8227,7 +8230,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8248,7 +8251,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8269,7 +8272,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8290,7 +8293,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8311,7 +8314,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8332,7 +8335,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8353,7 +8356,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8374,7 +8377,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8395,7 +8398,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8416,7 +8419,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8437,7 +8440,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -8458,7 +8461,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -8479,7 +8482,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -8500,7 +8503,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -8521,7 +8524,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -8542,7 +8545,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8563,7 +8566,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8584,7 +8587,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8605,7 +8608,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8626,7 +8629,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8647,7 +8650,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8668,7 +8671,7 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8689,7 +8692,7 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8710,7 +8713,7 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8731,7 +8734,7 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8752,7 +8755,7 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8773,7 +8776,7 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8794,7 +8797,7 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8815,7 +8818,7 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8836,7 +8839,7 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8857,7 +8860,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8878,7 +8881,7 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8899,7 +8902,7 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8920,7 +8923,7 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8941,7 +8944,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8962,7 +8965,7 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8983,7 +8986,7 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9004,7 +9007,7 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9025,7 +9028,7 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9046,7 +9049,7 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9067,7 +9070,7 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9088,7 +9091,7 @@
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9109,7 +9112,7 @@
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9130,7 +9133,7 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9151,7 +9154,7 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9172,7 +9175,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9193,7 +9196,7 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9214,7 +9217,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9235,7 +9238,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9256,7 +9259,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9277,7 +9280,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9298,7 +9301,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9319,7 +9322,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9340,7 +9343,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9361,7 +9364,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9382,7 +9385,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9403,7 +9406,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9424,7 +9427,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9445,7 +9448,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9466,7 +9469,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9487,7 +9490,7 @@
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9508,7 +9511,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9529,7 +9532,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9550,7 +9553,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9571,7 +9574,7 @@
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9592,7 +9595,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9613,7 +9616,7 @@
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9634,7 +9637,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9655,7 +9658,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9676,7 +9679,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9697,7 +9700,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9718,7 +9721,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9739,7 +9742,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9760,7 +9763,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9781,7 +9784,7 @@
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9802,7 +9805,7 @@
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9823,7 +9826,7 @@
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9844,7 +9847,7 @@
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9865,7 +9868,7 @@
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -9886,7 +9889,7 @@
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9907,7 +9910,7 @@
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9928,7 +9931,7 @@
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9949,7 +9952,7 @@
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9970,7 +9973,7 @@
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9991,7 +9994,7 @@
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10012,7 +10015,7 @@
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10033,7 +10036,7 @@
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10054,7 +10057,7 @@
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10075,7 +10078,7 @@
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10096,7 +10099,7 @@
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10117,7 +10120,7 @@
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10138,7 +10141,7 @@
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10159,7 +10162,7 @@
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10180,7 +10183,7 @@
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10201,7 +10204,7 @@
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10222,7 +10225,7 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10243,7 +10246,7 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10264,7 +10267,7 @@
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10285,7 +10288,7 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10306,7 +10309,7 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10408,30 +10411,30 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="4" customWidth="1"/>
-    <col min="16" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="4" customWidth="1"/>
-    <col min="22" max="26" width="11.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="4" customWidth="1"/>
+    <col min="16" max="19" width="11.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" style="4" customWidth="1"/>
+    <col min="22" max="26" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10511,131 +10514,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
@@ -10669,21 +10672,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="6"/>
-    <col min="12" max="12" width="10.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="6"/>
+    <col min="12" max="12" width="10.26953125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10746,17 +10749,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="9"/>
-    <col min="3" max="4" width="8.7109375" style="4"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="27" width="8.7109375" style="4"/>
-    <col min="28" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="9"/>
+    <col min="3" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6" max="27" width="8.7265625" style="4"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
@@ -10790,13 +10793,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -10813,7 +10816,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10830,7 +10833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -10873,7 +10876,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10916,7 +10919,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10936,7 +10939,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -10953,7 +10956,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M9" t="s">
         <v>166</v>
       </c>
@@ -10967,7 +10970,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M10" t="s">
         <v>167</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -11033,7 +11036,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11050,7 +11053,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M15" t="s">
         <v>172</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M16" t="s">
         <v>173</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -11136,7 +11139,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -11214,7 +11217,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -11240,7 +11243,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -11266,7 +11269,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -11289,7 +11292,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -11306,7 +11309,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>69</v>
       </c>
@@ -11351,7 +11354,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -11373,7 +11376,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>73</v>
       </c>
@@ -11395,7 +11398,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -11417,7 +11420,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>76</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>79</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>80</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>84</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>85</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -11527,7 +11530,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>96</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>101</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M49" t="s">
         <v>205</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M50" t="s">
         <v>206</v>
       </c>
@@ -11598,7 +11601,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -11633,7 +11636,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11703,7 +11706,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -11723,10 +11726,10 @@
         <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>638</v>
       </c>
       <c r="H54" t="s">
-        <v>41</v>
+        <v>638</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
@@ -11738,7 +11741,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -11758,10 +11761,10 @@
         <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
         <v>45</v>
@@ -11773,7 +11776,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -11792,6 +11795,12 @@
       <c r="F56" t="s">
         <v>46</v>
       </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
       <c r="M56" t="s">
         <v>212</v>
       </c>
@@ -11799,7 +11808,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -11825,7 +11834,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -11851,7 +11860,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -11877,7 +11886,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -11903,7 +11912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>36</v>
       </c>
@@ -11926,7 +11935,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -11946,7 +11955,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>42</v>
       </c>
@@ -11966,7 +11975,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>36</v>
       </c>
@@ -11986,7 +11995,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>132</v>
       </c>
@@ -12000,7 +12009,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F66" t="s">
         <v>129</v>
       </c>
@@ -12008,52 +12017,52 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M67" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M68" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M69" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M71" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M72" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M73" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M74" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M75" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>629</v>
       </c>
@@ -12064,7 +12073,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>631</v>
       </c>
@@ -12072,7 +12081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>632</v>
       </c>
@@ -12080,32 +12089,32 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M79" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M80" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M81" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M82" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M83" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -12117,7 +12126,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -12129,7 +12138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -12141,7 +12150,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -12153,7 +12162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -12165,7 +12174,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -12177,7 +12186,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -12201,7 +12210,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -12213,7 +12222,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(B84:B92)</f>
         <v xml:space="preserve">$L2 = "&amp;A84&amp;", $L2 = "&amp;A85&amp;", $L2 = "&amp;A86&amp;", $L2 = "&amp;A87&amp;", $L2 = "&amp;A88&amp;", $L2 = "&amp;A89&amp;", $L2 = "&amp;A90&amp;", $L2 = "&amp;A91&amp;", $L2 = "&amp;A92&amp;", </v>
@@ -12222,7 +12231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>635</v>
       </c>
@@ -12230,782 +12239,782 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M95" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M97" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M98" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M99" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M100" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M101" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M102" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M103" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M104" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M105" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M107" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M108" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M109" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M110" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M111" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M112" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M115" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M116" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M117" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M118" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M119" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M120" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M121" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M122" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M123" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M124" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M125" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M126" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M127" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M128" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M129" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M130" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M131" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M132" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M133" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M134" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M135" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M136" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M137" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M138" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M139" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M140" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M141" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M142" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M143" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M144" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M145" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M146" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M148" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M149" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M150" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M151" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M152" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M153" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M154" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M155" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M156" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M157" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M158" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M159" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M160" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M161" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M162" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M163" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M164" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M165" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M166" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M167" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M168" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M169" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M170" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M171" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M172" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M173" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M174" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M175" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M177" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M178" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M179" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M180" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M181" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M182" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M183" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M184" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M185" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M186" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M187" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M188" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M189" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M190" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M191" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M192" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M193" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M194" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M195" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M196" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M197" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M198" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M199" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M200" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M201" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M202" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M203" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M204" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M205" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M206" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M207" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M208" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M209" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M210" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M211" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M212" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M213" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M214" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M215" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M216" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M217" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M219" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M220" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M221" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M222" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M223" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M224" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M225" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M226" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M227" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M228" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M229" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M230" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M231" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M232" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M233" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M234" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M235" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M236" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M237" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M238" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M239" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M240" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M241" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M242" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M243" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M244" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M245" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M246" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M247" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M248" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M249" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.35">
       <c r="M250" t="s">
         <v>400</v>
       </c>
@@ -13025,18 +13034,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.7109375" customWidth="1"/>
+    <col min="7" max="14" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>586</v>
       </c>
@@ -13098,7 +13107,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -13160,7 +13169,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -13213,7 +13222,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>489</v>
       </c>
@@ -13257,7 +13266,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>490</v>
       </c>
@@ -13283,7 +13292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>491</v>
       </c>
@@ -13306,7 +13315,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>504</v>
       </c>
@@ -13323,7 +13332,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>505</v>
       </c>
@@ -13337,7 +13346,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>506</v>
       </c>
@@ -13351,7 +13360,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>507</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>508</v>
       </c>
@@ -13373,7 +13382,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>509</v>
       </c>
@@ -13384,7 +13393,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>510</v>
       </c>
@@ -13392,47 +13401,47 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>519</v>
       </c>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E860086-20C7-44C9-9CB8-C0FE45282CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A63F380-3D14-4C3F-9355-5EE12EE0B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-21750" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -2532,7 +2532,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -2565,6 +2565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3387,7 +3388,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3446,7 +3447,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6"/>
@@ -3459,7 +3460,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6"/>
@@ -3472,7 +3473,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="6"/>
@@ -3485,7 +3486,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="6"/>
@@ -3498,7 +3499,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="6"/>
@@ -3511,7 +3512,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6"/>
@@ -3524,7 +3525,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6"/>
@@ -3537,7 +3538,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="6"/>
@@ -3550,7 +3551,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="6"/>
@@ -3563,7 +3564,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="6"/>
@@ -3576,7 +3577,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="6"/>
@@ -3589,7 +3590,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6"/>
@@ -3602,7 +3603,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="6"/>
@@ -3615,7 +3616,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6"/>
@@ -3628,7 +3629,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6"/>
@@ -3641,7 +3642,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="6"/>
@@ -3654,7 +3655,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="6"/>
@@ -3667,7 +3668,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
@@ -3680,7 +3681,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
@@ -3693,7 +3694,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
@@ -3706,7 +3707,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="6"/>
@@ -3719,7 +3720,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6"/>
@@ -3732,7 +3733,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="6"/>
@@ -3745,7 +3746,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
@@ -3758,7 +3759,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6"/>
@@ -3771,7 +3772,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="6"/>
@@ -3784,7 +3785,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6"/>
@@ -3797,7 +3798,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6"/>
@@ -3810,7 +3811,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="6"/>
@@ -3823,7 +3824,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
@@ -3836,7 +3837,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
@@ -3849,7 +3850,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
@@ -3862,7 +3863,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="6"/>
@@ -3875,7 +3876,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="6"/>
@@ -3888,7 +3889,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="6"/>
@@ -3901,7 +3902,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="6"/>
@@ -3914,7 +3915,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="6"/>
@@ -3927,7 +3928,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6"/>
@@ -3940,7 +3941,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="6"/>
@@ -3953,7 +3954,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="6"/>
@@ -3966,7 +3967,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="6"/>
@@ -3979,7 +3980,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="6"/>
@@ -3992,7 +3993,7 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="6"/>
@@ -4005,7 +4006,7 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="6"/>
@@ -4018,7 +4019,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="6"/>
@@ -4031,7 +4032,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="6"/>
@@ -4044,7 +4045,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="6"/>
@@ -4057,7 +4058,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="6"/>
@@ -4070,7 +4071,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="6"/>
@@ -4083,7 +4084,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="6"/>
@@ -4096,7 +4097,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="6"/>
@@ -4109,7 +4110,7 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="6"/>
@@ -4122,7 +4123,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="6"/>
@@ -4135,7 +4136,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="6"/>
@@ -4148,7 +4149,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="6"/>
@@ -4161,7 +4162,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="6"/>
@@ -4174,7 +4175,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="14"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="6"/>
@@ -4187,7 +4188,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="6"/>
@@ -4200,7 +4201,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="6"/>
@@ -4213,7 +4214,7 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="6"/>
@@ -4226,7 +4227,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="6"/>
@@ -4239,7 +4240,7 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="6"/>
@@ -4252,7 +4253,7 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+      <c r="F64" s="14"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="6"/>
@@ -4265,7 +4266,7 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="F65" s="14"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="6"/>
@@ -4278,7 +4279,7 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="F66" s="14"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="6"/>
@@ -4291,7 +4292,7 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="6"/>
@@ -4304,7 +4305,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="6"/>
@@ -4317,7 +4318,7 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="F69" s="14"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="6"/>
@@ -4330,7 +4331,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="F70" s="14"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="6"/>
@@ -4343,7 +4344,7 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="F71" s="14"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="6"/>
@@ -4356,7 +4357,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="14"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="6"/>
@@ -4369,7 +4370,7 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="F73" s="14"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="6"/>
@@ -4382,7 +4383,7 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="F74" s="14"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="6"/>
@@ -4395,7 +4396,7 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="F75" s="14"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="6"/>
@@ -4408,7 +4409,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="F76" s="14"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="6"/>
@@ -4421,7 +4422,7 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="6"/>
@@ -4434,7 +4435,7 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="6"/>
@@ -4447,7 +4448,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="F79" s="14"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="6"/>
@@ -4460,7 +4461,7 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="6"/>
@@ -4473,7 +4474,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="F81" s="14"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="6"/>
@@ -4486,7 +4487,7 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="F82" s="14"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="6"/>
@@ -4499,7 +4500,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="F83" s="14"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="6"/>
@@ -4512,7 +4513,7 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="F84" s="14"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="6"/>
@@ -4525,7 +4526,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="F85" s="14"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="6"/>
@@ -4538,7 +4539,7 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="F86" s="14"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="6"/>
@@ -4551,7 +4552,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="F87" s="14"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="6"/>
@@ -4564,7 +4565,7 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="F88" s="14"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="6"/>
@@ -4577,7 +4578,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="F89" s="14"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="6"/>
@@ -4590,7 +4591,7 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="F90" s="14"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="6"/>
@@ -4603,7 +4604,7 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="14"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="6"/>
@@ -4616,7 +4617,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="F92" s="14"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="6"/>
@@ -4629,7 +4630,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="F93" s="14"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="6"/>
@@ -4642,7 +4643,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="F94" s="14"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="6"/>
@@ -4655,7 +4656,7 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="F95" s="14"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="6"/>
@@ -4668,7 +4669,7 @@
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="F96" s="14"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="6"/>
@@ -4681,7 +4682,7 @@
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="F97" s="14"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="6"/>
@@ -4694,7 +4695,7 @@
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+      <c r="F98" s="14"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="6"/>
@@ -4707,7 +4708,7 @@
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="F99" s="14"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="6"/>
@@ -4720,7 +4721,7 @@
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
+      <c r="F100" s="14"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="6"/>
@@ -4733,7 +4734,7 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
+      <c r="F101" s="14"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="6"/>
@@ -4746,7 +4747,7 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="F102" s="14"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="6"/>
@@ -4759,7 +4760,7 @@
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="F103" s="14"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="6"/>
@@ -4772,7 +4773,7 @@
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
+      <c r="F104" s="14"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="6"/>
@@ -4785,7 +4786,7 @@
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
+      <c r="F105" s="14"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="6"/>
@@ -4798,7 +4799,7 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
+      <c r="F106" s="14"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="6"/>
@@ -4811,7 +4812,7 @@
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
+      <c r="F107" s="14"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="6"/>
@@ -4824,7 +4825,7 @@
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
+      <c r="F108" s="14"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="6"/>
@@ -4837,7 +4838,7 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="F109" s="14"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="6"/>
@@ -4850,7 +4851,7 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="14"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="6"/>
@@ -4863,7 +4864,7 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
+      <c r="F111" s="14"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="6"/>
@@ -4876,7 +4877,7 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+      <c r="F112" s="14"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="6"/>
@@ -4889,7 +4890,7 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
+      <c r="F113" s="14"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="6"/>
@@ -4902,7 +4903,7 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
+      <c r="F114" s="14"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="6"/>
@@ -4915,7 +4916,7 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="F115" s="14"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="6"/>
@@ -4928,7 +4929,7 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
+      <c r="F116" s="14"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="6"/>
@@ -4941,7 +4942,7 @@
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
+      <c r="F117" s="14"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="6"/>
@@ -4954,7 +4955,7 @@
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
+      <c r="F118" s="14"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="6"/>
@@ -4967,7 +4968,7 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
+      <c r="F119" s="14"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="6"/>
@@ -4980,7 +4981,7 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
+      <c r="F120" s="14"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="6"/>
@@ -4993,7 +4994,7 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+      <c r="F121" s="14"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="6"/>
@@ -5006,7 +5007,7 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
+      <c r="F122" s="14"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="6"/>
@@ -5019,7 +5020,7 @@
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="F123" s="14"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="6"/>
@@ -5032,7 +5033,7 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
+      <c r="F124" s="14"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="6"/>
@@ -5045,7 +5046,7 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
+      <c r="F125" s="14"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="6"/>
@@ -5058,7 +5059,7 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
+      <c r="F126" s="14"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="6"/>
@@ -5071,7 +5072,7 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
+      <c r="F127" s="14"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="6"/>
@@ -5084,7 +5085,7 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
+      <c r="F128" s="14"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="6"/>
@@ -5097,7 +5098,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
+      <c r="F129" s="14"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="6"/>
@@ -5110,7 +5111,7 @@
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
+      <c r="F130" s="14"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="6"/>
@@ -5123,7 +5124,7 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
+      <c r="F131" s="14"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="6"/>
@@ -5136,7 +5137,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
+      <c r="F132" s="14"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="6"/>
@@ -5149,7 +5150,7 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
+      <c r="F133" s="14"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="6"/>
@@ -5162,7 +5163,7 @@
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
+      <c r="F134" s="14"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="6"/>
@@ -5175,7 +5176,7 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
+      <c r="F135" s="14"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="6"/>
@@ -5188,7 +5189,7 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
+      <c r="F136" s="14"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="6"/>
@@ -5201,7 +5202,7 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
+      <c r="F137" s="14"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="6"/>
@@ -5214,7 +5215,7 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
+      <c r="F138" s="14"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="6"/>
@@ -5227,7 +5228,7 @@
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
+      <c r="F139" s="14"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="6"/>
@@ -5240,7 +5241,7 @@
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
+      <c r="F140" s="14"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="6"/>
@@ -5253,7 +5254,7 @@
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
+      <c r="F141" s="14"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="6"/>
@@ -5266,7 +5267,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
+      <c r="F142" s="14"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="6"/>
@@ -5279,7 +5280,7 @@
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
+      <c r="F143" s="14"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="6"/>
@@ -5292,7 +5293,7 @@
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
+      <c r="F144" s="14"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="6"/>
@@ -5305,7 +5306,7 @@
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
+      <c r="F145" s="14"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="6"/>
@@ -5318,7 +5319,7 @@
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
+      <c r="F146" s="14"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="6"/>
@@ -5331,7 +5332,7 @@
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
+      <c r="F147" s="14"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="6"/>
@@ -5344,7 +5345,7 @@
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="14"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="6"/>
@@ -5357,7 +5358,7 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="F149" s="14"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="6"/>
@@ -5370,7 +5371,7 @@
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="F150" s="14"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="6"/>
@@ -5383,7 +5384,7 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
+      <c r="F151" s="14"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="6"/>
@@ -5396,7 +5397,7 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
+      <c r="F152" s="14"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="6"/>
@@ -5409,7 +5410,7 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
+      <c r="F153" s="14"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="6"/>
@@ -5422,7 +5423,7 @@
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
+      <c r="F154" s="14"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="6"/>
@@ -5435,7 +5436,7 @@
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
+      <c r="F155" s="14"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="6"/>
@@ -5448,7 +5449,7 @@
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="6"/>
-      <c r="F156" s="6"/>
+      <c r="F156" s="14"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="6"/>
@@ -5461,7 +5462,7 @@
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
+      <c r="F157" s="14"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="6"/>
@@ -5474,7 +5475,7 @@
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
+      <c r="F158" s="14"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="6"/>
@@ -5487,7 +5488,7 @@
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
+      <c r="F159" s="14"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="6"/>
@@ -5500,7 +5501,7 @@
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
+      <c r="F160" s="14"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="6"/>
@@ -5513,7 +5514,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
+      <c r="F161" s="14"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="6"/>
@@ -5526,7 +5527,7 @@
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
+      <c r="F162" s="14"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="6"/>
@@ -5539,7 +5540,7 @@
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
+      <c r="F163" s="14"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="6"/>
@@ -5552,7 +5553,7 @@
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="6"/>
-      <c r="F164" s="6"/>
+      <c r="F164" s="14"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="6"/>
@@ -5565,7 +5566,7 @@
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
+      <c r="F165" s="14"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="6"/>
@@ -5578,7 +5579,7 @@
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="6"/>
-      <c r="F166" s="6"/>
+      <c r="F166" s="14"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="6"/>
@@ -5591,7 +5592,7 @@
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="6"/>
-      <c r="F167" s="6"/>
+      <c r="F167" s="14"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="6"/>
@@ -5604,7 +5605,7 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
+      <c r="F168" s="14"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="6"/>
@@ -5617,7 +5618,7 @@
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="6"/>
-      <c r="F169" s="6"/>
+      <c r="F169" s="14"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="6"/>
@@ -5630,7 +5631,7 @@
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="6"/>
-      <c r="F170" s="6"/>
+      <c r="F170" s="14"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="6"/>
@@ -5643,7 +5644,7 @@
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
+      <c r="F171" s="14"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="6"/>
@@ -5656,7 +5657,7 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="6"/>
-      <c r="F172" s="6"/>
+      <c r="F172" s="14"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="6"/>
@@ -5669,7 +5670,7 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="6"/>
-      <c r="F173" s="6"/>
+      <c r="F173" s="14"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="6"/>
@@ -5682,7 +5683,7 @@
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="6"/>
-      <c r="F174" s="6"/>
+      <c r="F174" s="14"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="6"/>
@@ -5695,7 +5696,7 @@
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
+      <c r="F175" s="14"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="6"/>
@@ -5708,7 +5709,7 @@
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="6"/>
-      <c r="F176" s="6"/>
+      <c r="F176" s="14"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="6"/>
@@ -5721,7 +5722,7 @@
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
+      <c r="F177" s="14"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="6"/>
@@ -5734,7 +5735,7 @@
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
+      <c r="F178" s="14"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="6"/>
@@ -5747,7 +5748,7 @@
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
+      <c r="F179" s="14"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="6"/>
@@ -5760,7 +5761,7 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
+      <c r="F180" s="14"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="6"/>
@@ -5773,7 +5774,7 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
+      <c r="F181" s="14"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="6"/>
@@ -5786,7 +5787,7 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="6"/>
-      <c r="F182" s="6"/>
+      <c r="F182" s="14"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="6"/>
@@ -5799,7 +5800,7 @@
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
+      <c r="F183" s="14"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="6"/>
@@ -5812,7 +5813,7 @@
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="6"/>
-      <c r="F184" s="6"/>
+      <c r="F184" s="14"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
       <c r="I184" s="6"/>
@@ -5825,7 +5826,7 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="6"/>
-      <c r="F185" s="6"/>
+      <c r="F185" s="14"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="6"/>
@@ -5838,7 +5839,7 @@
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="6"/>
-      <c r="F186" s="6"/>
+      <c r="F186" s="14"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
       <c r="I186" s="6"/>
@@ -5851,7 +5852,7 @@
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="6"/>
-      <c r="F187" s="6"/>
+      <c r="F187" s="14"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="6"/>
@@ -5864,7 +5865,7 @@
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="6"/>
-      <c r="F188" s="6"/>
+      <c r="F188" s="14"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="6"/>
@@ -5877,7 +5878,7 @@
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="6"/>
-      <c r="F189" s="6"/>
+      <c r="F189" s="14"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="6"/>
@@ -5890,7 +5891,7 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="6"/>
-      <c r="F190" s="6"/>
+      <c r="F190" s="14"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="6"/>
@@ -5903,7 +5904,7 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="6"/>
-      <c r="F191" s="6"/>
+      <c r="F191" s="14"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="6"/>
@@ -5916,7 +5917,7 @@
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="6"/>
-      <c r="F192" s="6"/>
+      <c r="F192" s="14"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="6"/>
@@ -5929,7 +5930,7 @@
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
+      <c r="F193" s="14"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="6"/>
@@ -5942,7 +5943,7 @@
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
+      <c r="F194" s="14"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="6"/>
@@ -5955,7 +5956,7 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
+      <c r="F195" s="14"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="6"/>
@@ -5968,7 +5969,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
+      <c r="F196" s="14"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="6"/>
@@ -5981,7 +5982,7 @@
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
+      <c r="F197" s="14"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="6"/>
@@ -5994,7 +5995,7 @@
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
+      <c r="F198" s="14"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="6"/>
@@ -6007,7 +6008,7 @@
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
+      <c r="F199" s="14"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="6"/>
@@ -6020,7 +6021,7 @@
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
+      <c r="F200" s="14"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="6"/>
@@ -10793,7 +10794,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A63F380-3D14-4C3F-9355-5EE12EE0B0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4518DF2D-B764-4FB6-AA3E-9C6BFC0DB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,12 @@
     <definedName name="Names_Meters">'Meters-Utilities'!$B$2:$B$201</definedName>
     <definedName name="NaturalGasFuel">HIDE!$F$18</definedName>
     <definedName name="NaturalGasSLG">HIDE!$D$12</definedName>
-    <definedName name="NaturalGasunits">HIDE!$B$52:$B$65</definedName>
+    <definedName name="NaturalGasunits">HIDE!$B$52:$B$66</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
     <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
-    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$65</definedName>
+    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$66</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
     <definedName name="OtherFuelsLiquidunits">HIDE!$D$52:$D$64</definedName>
     <definedName name="OtherFuelsSLG">HIDE!$A$12:$A$14</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="640">
   <si>
     <t>Meter Number</t>
   </si>
@@ -2013,6 +2013,9 @@
   </si>
   <si>
     <t>kgal</t>
+  </si>
+  <si>
+    <t>MCM</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3377,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3391,22 +3394,22 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="33.1796875" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>133</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
@@ -3454,7 +3457,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
@@ -3467,7 +3470,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -3480,7 +3483,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
@@ -3493,7 +3496,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
@@ -3506,7 +3509,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -3519,7 +3522,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -3532,7 +3535,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
@@ -3545,7 +3548,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
@@ -3558,7 +3561,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
@@ -3571,7 +3574,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
@@ -3584,7 +3587,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -3597,7 +3600,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -3610,7 +3613,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
@@ -3623,7 +3626,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
@@ -3636,7 +3639,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -3649,7 +3652,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
@@ -3662,7 +3665,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -3675,7 +3678,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -3688,7 +3691,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
@@ -3701,7 +3704,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -3714,7 +3717,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -3727,7 +3730,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -3740,7 +3743,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
@@ -3753,7 +3756,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
@@ -3766,7 +3769,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
@@ -3779,7 +3782,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
@@ -3792,7 +3795,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
@@ -3805,7 +3808,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
@@ -3818,7 +3821,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
@@ -3831,7 +3834,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
@@ -3844,7 +3847,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -3857,7 +3860,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
@@ -3870,7 +3873,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
@@ -3883,7 +3886,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
@@ -3896,7 +3899,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
@@ -3909,7 +3912,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
@@ -3922,7 +3925,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
@@ -3935,7 +3938,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
@@ -3948,7 +3951,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
@@ -3961,7 +3964,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
@@ -3974,7 +3977,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -3987,7 +3990,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -4000,7 +4003,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
@@ -4013,7 +4016,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -4026,7 +4029,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
@@ -4039,7 +4042,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
@@ -4052,7 +4055,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
@@ -4065,7 +4068,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -4078,7 +4081,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -4091,7 +4094,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -4104,7 +4107,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
@@ -4117,7 +4120,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
@@ -4130,7 +4133,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
@@ -4143,7 +4146,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
@@ -4156,7 +4159,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
@@ -4169,7 +4172,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
@@ -4182,7 +4185,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
@@ -4195,7 +4198,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
@@ -4208,7 +4211,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
@@ -4221,7 +4224,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
@@ -4234,7 +4237,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
@@ -4247,7 +4250,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
@@ -4260,7 +4263,7 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -4273,7 +4276,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
@@ -4286,7 +4289,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
@@ -4299,7 +4302,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -4312,7 +4315,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="3"/>
@@ -4325,7 +4328,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="3"/>
@@ -4338,7 +4341,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="3"/>
@@ -4351,7 +4354,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="3"/>
@@ -4364,7 +4367,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
@@ -4377,7 +4380,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="3"/>
@@ -4390,7 +4393,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="3"/>
@@ -4403,7 +4406,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="3"/>
@@ -4416,7 +4419,7 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="3"/>
@@ -4429,7 +4432,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="3"/>
@@ -4442,7 +4445,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="3"/>
@@ -4455,7 +4458,7 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="3"/>
@@ -4468,7 +4471,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="3"/>
@@ -4481,7 +4484,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="3"/>
@@ -4494,7 +4497,7 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="3"/>
@@ -4507,7 +4510,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="3"/>
@@ -4520,7 +4523,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="3"/>
@@ -4533,7 +4536,7 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -4546,7 +4549,7 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -4559,7 +4562,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="3"/>
@@ -4572,7 +4575,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="3"/>
@@ -4585,7 +4588,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -4598,7 +4601,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -4611,7 +4614,7 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="3"/>
@@ -4624,7 +4627,7 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="3"/>
@@ -4637,7 +4640,7 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="3"/>
@@ -4650,7 +4653,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="3"/>
@@ -4663,7 +4666,7 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="3"/>
@@ -4676,7 +4679,7 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="3"/>
@@ -4689,7 +4692,7 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="3"/>
@@ -4702,7 +4705,7 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="3"/>
@@ -4715,7 +4718,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="3"/>
@@ -4728,7 +4731,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="3"/>
@@ -4741,7 +4744,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="3"/>
@@ -4754,7 +4757,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="3"/>
@@ -4767,7 +4770,7 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="3"/>
@@ -4780,7 +4783,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="3"/>
@@ -4793,7 +4796,7 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="3"/>
@@ -4806,7 +4809,7 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="3"/>
@@ -4819,7 +4822,7 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -4832,7 +4835,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="3"/>
@@ -4845,7 +4848,7 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="3"/>
@@ -4858,7 +4861,7 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="3"/>
@@ -4871,7 +4874,7 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="3"/>
@@ -4884,7 +4887,7 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4897,7 +4900,7 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="3"/>
@@ -4910,7 +4913,7 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="3"/>
@@ -4923,7 +4926,7 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="3"/>
@@ -4936,7 +4939,7 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="3"/>
@@ -4949,7 +4952,7 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="3"/>
@@ -4962,7 +4965,7 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="3"/>
@@ -4975,7 +4978,7 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="3"/>
@@ -4988,7 +4991,7 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3"/>
@@ -5001,7 +5004,7 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3"/>
@@ -5014,7 +5017,7 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3"/>
@@ -5027,7 +5030,7 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3"/>
@@ -5040,7 +5043,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="3"/>
@@ -5053,7 +5056,7 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3"/>
@@ -5066,7 +5069,7 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="3"/>
@@ -5079,7 +5082,7 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3"/>
@@ -5092,7 +5095,7 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -5105,7 +5108,7 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="3"/>
@@ -5118,7 +5121,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="3"/>
@@ -5131,7 +5134,7 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="3"/>
@@ -5144,7 +5147,7 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="3"/>
@@ -5157,7 +5160,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="3"/>
@@ -5170,7 +5173,7 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -5183,7 +5186,7 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="3"/>
@@ -5196,7 +5199,7 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="3"/>
@@ -5209,7 +5212,7 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="3"/>
@@ -5222,7 +5225,7 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="3"/>
@@ -5235,7 +5238,7 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="3"/>
@@ -5248,7 +5251,7 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="3"/>
@@ -5261,7 +5264,7 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="3"/>
@@ -5274,7 +5277,7 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="3"/>
@@ -5287,7 +5290,7 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="3"/>
@@ -5300,7 +5303,7 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="3"/>
@@ -5313,7 +5316,7 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="3"/>
@@ -5326,7 +5329,7 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="3"/>
@@ -5339,7 +5342,7 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="3"/>
@@ -5352,7 +5355,7 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="3"/>
@@ -5365,7 +5368,7 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -5378,7 +5381,7 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="3"/>
@@ -5391,7 +5394,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="3"/>
@@ -5404,7 +5407,7 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="3"/>
@@ -5417,7 +5420,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="3"/>
@@ -5430,7 +5433,7 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="3"/>
@@ -5443,7 +5446,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="3"/>
@@ -5456,7 +5459,7 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -5469,7 +5472,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="3"/>
@@ -5482,7 +5485,7 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="3"/>
@@ -5495,7 +5498,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="3"/>
@@ -5508,7 +5511,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="3"/>
@@ -5521,7 +5524,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="3"/>
@@ -5534,7 +5537,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="3"/>
@@ -5547,7 +5550,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="3"/>
@@ -5560,7 +5563,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="3"/>
@@ -5573,7 +5576,7 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="3"/>
@@ -5586,7 +5589,7 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="3"/>
@@ -5599,7 +5602,7 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="3"/>
@@ -5612,7 +5615,7 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="3"/>
@@ -5625,7 +5628,7 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="3"/>
@@ -5638,7 +5641,7 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5651,7 +5654,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5664,7 +5667,7 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="3"/>
@@ -5677,7 +5680,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="3"/>
@@ -5690,7 +5693,7 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="3"/>
@@ -5703,7 +5706,7 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="3"/>
@@ -5716,7 +5719,7 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="3"/>
@@ -5729,7 +5732,7 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="3"/>
@@ -5742,7 +5745,7 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5755,7 +5758,7 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5768,7 +5771,7 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="3"/>
@@ -5781,7 +5784,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="3"/>
@@ -5794,7 +5797,7 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="3"/>
@@ -5807,7 +5810,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="3"/>
@@ -5820,7 +5823,7 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="3"/>
@@ -5833,7 +5836,7 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="3"/>
@@ -5846,7 +5849,7 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="3"/>
@@ -5859,7 +5862,7 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="3"/>
@@ -5872,7 +5875,7 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="3"/>
@@ -5885,7 +5888,7 @@
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="3"/>
@@ -5898,7 +5901,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="3"/>
@@ -5911,7 +5914,7 @@
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="3"/>
@@ -5924,7 +5927,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="3"/>
@@ -5937,7 +5940,7 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="3"/>
@@ -5950,7 +5953,7 @@
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="3"/>
@@ -5963,7 +5966,7 @@
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="3"/>
@@ -5976,7 +5979,7 @@
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="3"/>
@@ -5989,7 +5992,7 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="3"/>
@@ -6002,7 +6005,7 @@
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="3"/>
@@ -6015,7 +6018,7 @@
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="3"/>
@@ -6059,20 +6062,20 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="14.1796875" customWidth="1"/>
-    <col min="11" max="11" width="22.81640625" customWidth="1"/>
-    <col min="12" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="41.1796875" customWidth="1"/>
-    <col min="18" max="19" width="14.1796875" customWidth="1"/>
-    <col min="23" max="23" width="12.81640625" customWidth="1"/>
+    <col min="1" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" customWidth="1"/>
+    <col min="18" max="19" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>133</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6152,7 +6155,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6173,7 +6176,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6194,7 +6197,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6215,7 +6218,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6236,7 +6239,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6257,7 +6260,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6278,7 +6281,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6299,7 +6302,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6320,7 +6323,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6341,7 +6344,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6362,7 +6365,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6383,7 +6386,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6404,7 +6407,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6425,7 +6428,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6446,7 +6449,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6467,7 +6470,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6488,7 +6491,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6509,7 +6512,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6530,7 +6533,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6551,7 +6554,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6572,7 +6575,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6593,7 +6596,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6614,7 +6617,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6635,7 +6638,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6656,7 +6659,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6677,7 +6680,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6698,7 +6701,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6719,7 +6722,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6740,7 +6743,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6761,7 +6764,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6782,7 +6785,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6803,7 +6806,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6824,7 +6827,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6845,7 +6848,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6866,7 +6869,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6887,7 +6890,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6908,7 +6911,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6929,7 +6932,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6950,7 +6953,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6971,7 +6974,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6992,7 +6995,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7013,7 +7016,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7034,7 +7037,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7055,7 +7058,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7076,7 +7079,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7097,7 +7100,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7118,7 +7121,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7139,7 +7142,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7160,7 +7163,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7181,7 +7184,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7202,7 +7205,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7223,7 +7226,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7244,7 +7247,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7265,7 +7268,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7286,7 +7289,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7307,7 +7310,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7328,7 +7331,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7349,7 +7352,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7370,7 +7373,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7391,7 +7394,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7412,7 +7415,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7433,7 +7436,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7454,7 +7457,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7475,7 +7478,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7496,7 +7499,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7517,7 +7520,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7538,7 +7541,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7559,7 +7562,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7580,7 +7583,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7601,7 +7604,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7622,7 +7625,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7643,7 +7646,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7664,7 +7667,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7685,7 +7688,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -7706,7 +7709,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -7727,7 +7730,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -7748,7 +7751,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7769,7 +7772,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -7790,7 +7793,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7811,7 +7814,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7832,7 +7835,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7853,7 +7856,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -7874,7 +7877,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -7895,7 +7898,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7916,7 +7919,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7937,7 +7940,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7958,7 +7961,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7979,7 +7982,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8000,7 +8003,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8021,7 +8024,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8042,7 +8045,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8063,7 +8066,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8084,7 +8087,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8105,7 +8108,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8126,7 +8129,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8147,7 +8150,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8168,7 +8171,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8189,7 +8192,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8210,7 +8213,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8231,7 +8234,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8252,7 +8255,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8273,7 +8276,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8294,7 +8297,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8315,7 +8318,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8336,7 +8339,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8357,7 +8360,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8378,7 +8381,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8399,7 +8402,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8420,7 +8423,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8441,7 +8444,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -8462,7 +8465,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -8483,7 +8486,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -8504,7 +8507,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -8525,7 +8528,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -8546,7 +8549,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8567,7 +8570,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8588,7 +8591,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8609,7 +8612,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8630,7 +8633,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8651,7 +8654,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8672,7 +8675,7 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8693,7 +8696,7 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8714,7 +8717,7 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8735,7 +8738,7 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8756,7 +8759,7 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8777,7 +8780,7 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8798,7 +8801,7 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8819,7 +8822,7 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8840,7 +8843,7 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8861,7 +8864,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8882,7 +8885,7 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8903,7 +8906,7 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8924,7 +8927,7 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8945,7 +8948,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8966,7 +8969,7 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8987,7 +8990,7 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9008,7 +9011,7 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9029,7 +9032,7 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9050,7 +9053,7 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9071,7 +9074,7 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9092,7 +9095,7 @@
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9113,7 +9116,7 @@
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9134,7 +9137,7 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9155,7 +9158,7 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9176,7 +9179,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9197,7 +9200,7 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9218,7 +9221,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9239,7 +9242,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9260,7 +9263,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9281,7 +9284,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9302,7 +9305,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9323,7 +9326,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9344,7 +9347,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9365,7 +9368,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9386,7 +9389,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9407,7 +9410,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9428,7 +9431,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9449,7 +9452,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9470,7 +9473,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9491,7 +9494,7 @@
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9512,7 +9515,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9533,7 +9536,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9554,7 +9557,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9575,7 +9578,7 @@
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9596,7 +9599,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9617,7 +9620,7 @@
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9638,7 +9641,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9659,7 +9662,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9680,7 +9683,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9701,7 +9704,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9722,7 +9725,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9743,7 +9746,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9764,7 +9767,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9785,7 +9788,7 @@
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9806,7 +9809,7 @@
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9827,7 +9830,7 @@
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9848,7 +9851,7 @@
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9869,7 +9872,7 @@
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -9890,7 +9893,7 @@
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9911,7 +9914,7 @@
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9932,7 +9935,7 @@
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9953,7 +9956,7 @@
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9974,7 +9977,7 @@
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9995,7 +9998,7 @@
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10016,7 +10019,7 @@
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10037,7 +10040,7 @@
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10058,7 +10061,7 @@
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10079,7 +10082,7 @@
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10100,7 +10103,7 @@
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10121,7 +10124,7 @@
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10142,7 +10145,7 @@
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10163,7 +10166,7 @@
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10184,7 +10187,7 @@
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10205,7 +10208,7 @@
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10226,7 +10229,7 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10247,7 +10250,7 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10268,7 +10271,7 @@
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10289,7 +10292,7 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10310,7 +10313,7 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10415,27 +10418,27 @@
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.54296875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="13.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.453125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.1796875" style="4" customWidth="1"/>
-    <col min="16" max="19" width="11.1796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" style="4" customWidth="1"/>
-    <col min="22" max="26" width="11.1796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="4" customWidth="1"/>
+    <col min="16" max="19" width="11.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="4" customWidth="1"/>
+    <col min="22" max="26" width="11.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10515,131 +10518,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
@@ -10673,21 +10676,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.1796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.7265625" style="6"/>
-    <col min="12" max="12" width="10.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="6"/>
+    <col min="12" max="12" width="10.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10750,17 +10753,17 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="9"/>
-    <col min="3" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="10.1796875" style="4" customWidth="1"/>
-    <col min="6" max="27" width="8.7265625" style="4"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="9"/>
+    <col min="3" max="4" width="8.7109375" style="4"/>
+    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
+    <col min="6" max="27" width="8.7109375" style="4"/>
+    <col min="28" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
@@ -10794,13 +10797,13 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -10854,7 +10857,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -10957,7 +10960,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
         <v>166</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
         <v>167</v>
       </c>
@@ -10985,7 +10988,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -11020,7 +11023,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11054,7 +11057,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
         <v>172</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>173</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -11140,7 +11143,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -11218,7 +11221,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -11293,7 +11296,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -11341,7 +11344,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>69</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -11377,7 +11380,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -11388,7 +11391,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>73</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>74</v>
       </c>
@@ -11410,7 +11413,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>76</v>
       </c>
@@ -11432,7 +11435,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>77</v>
       </c>
@@ -11443,7 +11446,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>78</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>79</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>80</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>82</v>
       </c>
@@ -11487,7 +11490,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>84</v>
       </c>
@@ -11498,7 +11501,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>85</v>
       </c>
@@ -11509,7 +11512,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>88</v>
       </c>
@@ -11520,7 +11523,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>89</v>
       </c>
@@ -11531,7 +11534,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -11542,7 +11545,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>96</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>101</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
         <v>205</v>
       </c>
@@ -11594,7 +11597,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
         <v>206</v>
       </c>
@@ -11602,7 +11605,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -11672,7 +11675,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -11742,7 +11745,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -11777,7 +11780,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -11809,7 +11812,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>36</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -11956,12 +11959,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
@@ -11976,12 +11979,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -11996,12 +11999,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>128</v>
@@ -12010,7 +12013,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
       <c r="F66" t="s">
         <v>129</v>
       </c>
@@ -12018,52 +12027,52 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M67" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M69" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M70" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M73" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M74" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M75" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>629</v>
       </c>
@@ -12074,7 +12083,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>631</v>
       </c>
@@ -12082,7 +12091,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>632</v>
       </c>
@@ -12090,32 +12099,32 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M79" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M80" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M81" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M82" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M83" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -12127,7 +12136,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -12139,7 +12148,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -12151,7 +12160,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -12163,7 +12172,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -12175,7 +12184,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -12187,7 +12196,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -12199,7 +12208,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -12211,7 +12220,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -12223,7 +12232,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(B84:B92)</f>
         <v xml:space="preserve">$L2 = "&amp;A84&amp;", $L2 = "&amp;A85&amp;", $L2 = "&amp;A86&amp;", $L2 = "&amp;A87&amp;", $L2 = "&amp;A88&amp;", $L2 = "&amp;A89&amp;", $L2 = "&amp;A90&amp;", $L2 = "&amp;A91&amp;", $L2 = "&amp;A92&amp;", </v>
@@ -12232,7 +12241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>635</v>
       </c>
@@ -12240,782 +12249,782 @@
         <v>249</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M95" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M96" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M97" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M98" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M99" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M100" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M101" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M102" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M103" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M104" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M105" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M106" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M107" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M108" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M109" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M110" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M111" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M112" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M113" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M114" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M115" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M116" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M117" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M118" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M119" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M120" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M121" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M122" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M123" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M124" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M125" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M126" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M127" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M128" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M129" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M130" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M131" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M132" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M133" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M134" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M135" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M136" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M137" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M138" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M139" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M140" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M141" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M142" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M143" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M144" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M145" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M146" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M147" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M148" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M149" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M150" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M151" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M152" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M153" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M154" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M155" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M156" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M157" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M158" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M159" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M160" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M161" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M162" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M163" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="164" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M164" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M165" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M166" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M167" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M168" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M169" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M170" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M171" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M172" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="173" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M173" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="174" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M174" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M175" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="176" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M176" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M177" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M180" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="183" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="184" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M185" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M186" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M187" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M188" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M189" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="190" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M190" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="191" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M191" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="192" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M192" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M193" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M194" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M195" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M196" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M197" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M198" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M199" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M200" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M201" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M202" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M203" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M204" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M205" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M206" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M207" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M208" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M209" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M210" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M211" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M212" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M213" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M214" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M215" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M216" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M217" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M219" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M220" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M221" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M222" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M223" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M224" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M225" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M226" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M227" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M228" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M229" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M230" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M231" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M232" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M233" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M234" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M235" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M236" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M237" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M238" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M239" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M240" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M241" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M242" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M243" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M244" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M245" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M246" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M247" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M248" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M249" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M250" t="s">
         <v>400</v>
       </c>
@@ -13035,18 +13044,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.7265625" customWidth="1"/>
+    <col min="7" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>586</v>
       </c>
@@ -13108,7 +13117,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>487</v>
       </c>
@@ -13170,7 +13179,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -13223,7 +13232,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>489</v>
       </c>
@@ -13267,7 +13276,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>490</v>
       </c>
@@ -13293,7 +13302,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>491</v>
       </c>
@@ -13316,7 +13325,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>504</v>
       </c>
@@ -13333,7 +13342,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>505</v>
       </c>
@@ -13347,7 +13356,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>506</v>
       </c>
@@ -13361,7 +13370,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>507</v>
       </c>
@@ -13372,7 +13381,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>508</v>
       </c>
@@ -13383,7 +13392,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>509</v>
       </c>
@@ -13394,7 +13403,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>510</v>
       </c>
@@ -13402,47 +13411,47 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>519</v>
       </c>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4518DF2D-B764-4FB6-AA3E-9C6BFC0DB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0A7B3A4-78C9-4FFB-AA3C-8F5B2E99987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,12 +56,12 @@
     <definedName name="Names_Meters">'Meters-Utilities'!$B$2:$B$201</definedName>
     <definedName name="NaturalGasFuel">HIDE!$F$18</definedName>
     <definedName name="NaturalGasSLG">HIDE!$D$12</definedName>
-    <definedName name="NaturalGasunits">HIDE!$B$52:$B$66</definedName>
+    <definedName name="NaturalGasunits">HIDE!$B$52:$B$68</definedName>
     <definedName name="OtherEnergyFuel">HIDE!$D$18:$D$22</definedName>
     <definedName name="OtherEnergySLG">HIDE!$B$12</definedName>
     <definedName name="OtherEnergyunits">HIDE!$F$52:$F$66</definedName>
     <definedName name="OtherFuelsGasFuel">HIDE!$A$18:$A$25</definedName>
-    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$66</definedName>
+    <definedName name="OtherFuelsGasunits">HIDE!$C$52:$C$68</definedName>
     <definedName name="OtherFuelsLiquidFuel">HIDE!$B$18:$B$48</definedName>
     <definedName name="OtherFuelsLiquidunits">HIDE!$D$52:$D$64</definedName>
     <definedName name="OtherFuelsSLG">HIDE!$A$12:$A$14</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="642">
   <si>
     <t>Meter Number</t>
   </si>
@@ -494,9 +494,6 @@
     <t>MMBtu</t>
   </si>
   <si>
-    <t>MCF</t>
-  </si>
-  <si>
     <t>Facility Name</t>
   </si>
   <si>
@@ -2016,6 +2013,15 @@
   </si>
   <si>
     <t>MCM</t>
+  </si>
+  <si>
+    <t>kCM</t>
+  </si>
+  <si>
+    <t>MMCF</t>
+  </si>
+  <si>
+    <t>kCF</t>
   </si>
 </sst>
 </file>
@@ -3377,7 +3383,7 @@
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3394,57 +3400,57 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
+    <col min="8" max="8" width="33.1796875" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="3"/>
@@ -3457,7 +3463,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
@@ -3470,7 +3476,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="3"/>
@@ -3483,7 +3489,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="3"/>
@@ -3496,7 +3502,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="3"/>
@@ -3509,7 +3515,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -3522,7 +3528,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -3535,7 +3541,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
@@ -3548,7 +3554,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
@@ -3561,7 +3567,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
@@ -3574,7 +3580,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="3"/>
@@ -3587,7 +3593,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -3600,7 +3606,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -3613,7 +3619,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
@@ -3626,7 +3632,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
@@ -3639,7 +3645,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="3"/>
@@ -3652,7 +3658,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="3"/>
@@ -3665,7 +3671,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
@@ -3678,7 +3684,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -3691,7 +3697,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
@@ -3704,7 +3710,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="3"/>
@@ -3717,7 +3723,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="3"/>
@@ -3730,7 +3736,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3"/>
@@ -3743,7 +3749,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="3"/>
@@ -3756,7 +3762,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="3"/>
@@ -3769,7 +3775,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="3"/>
@@ -3782,7 +3788,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="3"/>
@@ -3795,7 +3801,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="3"/>
@@ -3808,7 +3814,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="3"/>
@@ -3821,7 +3827,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="3"/>
@@ -3834,7 +3840,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="3"/>
@@ -3847,7 +3853,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="3"/>
@@ -3860,7 +3866,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="3"/>
@@ -3873,7 +3879,7 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="3"/>
@@ -3886,7 +3892,7 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="3"/>
@@ -3899,7 +3905,7 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="3"/>
@@ -3912,7 +3918,7 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="3"/>
@@ -3925,7 +3931,7 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="3"/>
@@ -3938,7 +3944,7 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="3"/>
@@ -3951,7 +3957,7 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="3"/>
@@ -3964,7 +3970,7 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="3"/>
@@ -3977,7 +3983,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="3"/>
@@ -3990,7 +3996,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="3"/>
@@ -4003,7 +4009,7 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="3"/>
@@ -4016,7 +4022,7 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="3"/>
@@ -4029,7 +4035,7 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="3"/>
@@ -4042,7 +4048,7 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
@@ -4055,7 +4061,7 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
@@ -4068,7 +4074,7 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
@@ -4081,7 +4087,7 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
@@ -4094,7 +4100,7 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
@@ -4107,7 +4113,7 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
@@ -4120,7 +4126,7 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
@@ -4133,7 +4139,7 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
@@ -4146,7 +4152,7 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
@@ -4159,7 +4165,7 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
@@ -4172,7 +4178,7 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
@@ -4185,7 +4191,7 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
@@ -4198,7 +4204,7 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
@@ -4211,7 +4217,7 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
@@ -4224,7 +4230,7 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
@@ -4237,7 +4243,7 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
@@ -4250,7 +4256,7 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="3"/>
@@ -4263,7 +4269,7 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="3"/>
@@ -4276,7 +4282,7 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="3"/>
@@ -4289,7 +4295,7 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="3"/>
@@ -4302,7 +4308,7 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="3"/>
@@ -4315,7 +4321,7 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="3"/>
@@ -4328,7 +4334,7 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="3"/>
@@ -4341,7 +4347,7 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="3"/>
@@ -4354,7 +4360,7 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="3"/>
@@ -4367,7 +4373,7 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
@@ -4380,7 +4386,7 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="3"/>
@@ -4393,7 +4399,7 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="3"/>
@@ -4406,7 +4412,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="3"/>
@@ -4419,7 +4425,7 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="3"/>
@@ -4432,7 +4438,7 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="3"/>
@@ -4445,7 +4451,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="3"/>
@@ -4458,7 +4464,7 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="3"/>
@@ -4471,7 +4477,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="3"/>
@@ -4484,7 +4490,7 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="3"/>
@@ -4497,7 +4503,7 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="3"/>
@@ -4510,7 +4516,7 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="3"/>
@@ -4523,7 +4529,7 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="3"/>
@@ -4536,7 +4542,7 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="3"/>
@@ -4549,7 +4555,7 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="3"/>
@@ -4562,7 +4568,7 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="3"/>
@@ -4575,7 +4581,7 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="3"/>
@@ -4588,7 +4594,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="3"/>
@@ -4601,7 +4607,7 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="3"/>
@@ -4614,7 +4620,7 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="3"/>
@@ -4627,7 +4633,7 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="3"/>
@@ -4640,7 +4646,7 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="3"/>
@@ -4653,7 +4659,7 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="3"/>
@@ -4666,7 +4672,7 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="3"/>
@@ -4679,7 +4685,7 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="3"/>
@@ -4692,7 +4698,7 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="3"/>
@@ -4705,7 +4711,7 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="3"/>
@@ -4718,7 +4724,7 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="3"/>
@@ -4731,7 +4737,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="3"/>
@@ -4744,7 +4750,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="3"/>
@@ -4757,7 +4763,7 @@
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="3"/>
@@ -4770,7 +4776,7 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="3"/>
@@ -4783,7 +4789,7 @@
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="3"/>
@@ -4796,7 +4802,7 @@
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="3"/>
@@ -4809,7 +4815,7 @@
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="3"/>
@@ -4822,7 +4828,7 @@
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="3"/>
@@ -4835,7 +4841,7 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="3"/>
@@ -4848,7 +4854,7 @@
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="3"/>
@@ -4861,7 +4867,7 @@
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="3"/>
@@ -4874,7 +4880,7 @@
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="3"/>
@@ -4887,7 +4893,7 @@
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="3"/>
@@ -4900,7 +4906,7 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="3"/>
@@ -4913,7 +4919,7 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="3"/>
@@ -4926,7 +4932,7 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="3"/>
@@ -4939,7 +4945,7 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="3"/>
@@ -4952,7 +4958,7 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="3"/>
@@ -4965,7 +4971,7 @@
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="3"/>
@@ -4978,7 +4984,7 @@
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="3"/>
@@ -4991,7 +4997,7 @@
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="3"/>
@@ -5004,7 +5010,7 @@
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="3"/>
@@ -5017,7 +5023,7 @@
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="3"/>
@@ -5030,7 +5036,7 @@
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="3"/>
@@ -5043,7 +5049,7 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="3"/>
@@ -5056,7 +5062,7 @@
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="3"/>
@@ -5069,7 +5075,7 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="3"/>
@@ -5082,7 +5088,7 @@
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="3"/>
@@ -5095,7 +5101,7 @@
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="3"/>
@@ -5108,7 +5114,7 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="3"/>
@@ -5121,7 +5127,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="3"/>
@@ -5134,7 +5140,7 @@
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="3"/>
@@ -5147,7 +5153,7 @@
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="3"/>
@@ -5160,7 +5166,7 @@
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="3"/>
@@ -5173,7 +5179,7 @@
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="3"/>
@@ -5186,7 +5192,7 @@
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="3"/>
@@ -5199,7 +5205,7 @@
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="3"/>
@@ -5212,7 +5218,7 @@
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="3"/>
@@ -5225,7 +5231,7 @@
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="3"/>
@@ -5238,7 +5244,7 @@
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="3"/>
@@ -5251,7 +5257,7 @@
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="3"/>
@@ -5264,7 +5270,7 @@
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="3"/>
@@ -5277,7 +5283,7 @@
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="3"/>
@@ -5290,7 +5296,7 @@
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="3"/>
@@ -5303,7 +5309,7 @@
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="3"/>
@@ -5316,7 +5322,7 @@
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="3"/>
@@ -5329,7 +5335,7 @@
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="3"/>
@@ -5342,7 +5348,7 @@
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="3"/>
@@ -5355,7 +5361,7 @@
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="3"/>
@@ -5368,7 +5374,7 @@
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="3"/>
@@ -5381,7 +5387,7 @@
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="3"/>
@@ -5394,7 +5400,7 @@
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="3"/>
@@ -5407,7 +5413,7 @@
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="3"/>
@@ -5420,7 +5426,7 @@
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="3"/>
@@ -5433,7 +5439,7 @@
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="3"/>
@@ -5446,7 +5452,7 @@
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="3"/>
@@ -5459,7 +5465,7 @@
       <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="3"/>
@@ -5472,7 +5478,7 @@
       <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="3"/>
@@ -5485,7 +5491,7 @@
       <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="3"/>
@@ -5498,7 +5504,7 @@
       <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="3"/>
@@ -5511,7 +5517,7 @@
       <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="3"/>
@@ -5524,7 +5530,7 @@
       <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="3"/>
@@ -5537,7 +5543,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="3"/>
@@ -5550,7 +5556,7 @@
       <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="3"/>
@@ -5563,7 +5569,7 @@
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="3"/>
@@ -5576,7 +5582,7 @@
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="3"/>
@@ -5589,7 +5595,7 @@
       <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="3"/>
@@ -5602,7 +5608,7 @@
       <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="3"/>
@@ -5615,7 +5621,7 @@
       <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="3"/>
@@ -5628,7 +5634,7 @@
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="3"/>
@@ -5641,7 +5647,7 @@
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="3"/>
@@ -5654,7 +5660,7 @@
       <c r="J171" s="6"/>
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="3"/>
@@ -5667,7 +5673,7 @@
       <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="3"/>
@@ -5680,7 +5686,7 @@
       <c r="J173" s="6"/>
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="3"/>
@@ -5693,7 +5699,7 @@
       <c r="J174" s="6"/>
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="3"/>
@@ -5706,7 +5712,7 @@
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="3"/>
@@ -5719,7 +5725,7 @@
       <c r="J176" s="6"/>
       <c r="K176" s="6"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="3"/>
@@ -5732,7 +5738,7 @@
       <c r="J177" s="6"/>
       <c r="K177" s="6"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="3"/>
@@ -5745,7 +5751,7 @@
       <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="3"/>
@@ -5758,7 +5764,7 @@
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="3"/>
@@ -5771,7 +5777,7 @@
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="3"/>
@@ -5784,7 +5790,7 @@
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="3"/>
@@ -5797,7 +5803,7 @@
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="3"/>
@@ -5810,7 +5816,7 @@
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="3"/>
@@ -5823,7 +5829,7 @@
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="3"/>
@@ -5836,7 +5842,7 @@
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="3"/>
@@ -5849,7 +5855,7 @@
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="3"/>
@@ -5862,7 +5868,7 @@
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="3"/>
@@ -5875,7 +5881,7 @@
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="3"/>
@@ -5888,7 +5894,7 @@
       <c r="J189" s="6"/>
       <c r="K189" s="6"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="3"/>
@@ -5901,7 +5907,7 @@
       <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="3"/>
@@ -5914,7 +5920,7 @@
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="3"/>
@@ -5927,7 +5933,7 @@
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="3"/>
@@ -5940,7 +5946,7 @@
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="3"/>
@@ -5953,7 +5959,7 @@
       <c r="J194" s="6"/>
       <c r="K194" s="6"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="3"/>
@@ -5966,7 +5972,7 @@
       <c r="J195" s="6"/>
       <c r="K195" s="6"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="3"/>
@@ -5979,7 +5985,7 @@
       <c r="J196" s="6"/>
       <c r="K196" s="6"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="3"/>
@@ -5992,7 +5998,7 @@
       <c r="J197" s="6"/>
       <c r="K197" s="6"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="3"/>
@@ -6005,7 +6011,7 @@
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="3"/>
@@ -6018,7 +6024,7 @@
       <c r="J199" s="6"/>
       <c r="K199" s="6"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="3"/>
@@ -6065,19 +6071,19 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" customWidth="1"/>
-    <col min="12" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="41.140625" customWidth="1"/>
-    <col min="18" max="19" width="14.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="1" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="22.81640625" customWidth="1"/>
+    <col min="12" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="41.1796875" customWidth="1"/>
+    <col min="18" max="19" width="14.1796875" customWidth="1"/>
+    <col min="23" max="23" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -6119,22 +6125,22 @@
         <v>16</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -6155,7 +6161,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -6176,7 +6182,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6197,7 +6203,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -6218,7 +6224,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6239,7 +6245,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -6260,7 +6266,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -6281,7 +6287,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6302,7 +6308,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -6323,7 +6329,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -6344,7 +6350,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -6365,7 +6371,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -6386,7 +6392,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -6407,7 +6413,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -6428,7 +6434,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -6449,7 +6455,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -6470,7 +6476,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -6491,7 +6497,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -6512,7 +6518,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6533,7 +6539,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -6554,7 +6560,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6575,7 +6581,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -6596,7 +6602,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6617,7 +6623,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -6638,7 +6644,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6659,7 +6665,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6680,7 +6686,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6701,7 +6707,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -6722,7 +6728,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6743,7 +6749,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -6764,7 +6770,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6785,7 +6791,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -6806,7 +6812,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6827,7 +6833,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -6848,7 +6854,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6869,7 +6875,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6890,7 +6896,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6911,7 +6917,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6932,7 +6938,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6953,7 +6959,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6974,7 +6980,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6995,7 +7001,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7016,7 +7022,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7037,7 +7043,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7058,7 +7064,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -7079,7 +7085,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -7100,7 +7106,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7121,7 +7127,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -7142,7 +7148,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7163,7 +7169,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7184,7 +7190,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7205,7 +7211,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -7226,7 +7232,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7247,7 +7253,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7268,7 +7274,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -7289,7 +7295,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -7310,7 +7316,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -7331,7 +7337,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -7352,7 +7358,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -7373,7 +7379,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -7394,7 +7400,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -7415,7 +7421,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -7436,7 +7442,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -7457,7 +7463,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7478,7 +7484,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -7499,7 +7505,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -7520,7 +7526,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -7541,7 +7547,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -7562,7 +7568,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -7583,7 +7589,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -7604,7 +7610,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -7625,7 +7631,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -7646,7 +7652,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -7667,7 +7673,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -7688,7 +7694,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -7709,7 +7715,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -7730,7 +7736,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -7751,7 +7757,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -7772,7 +7778,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -7793,7 +7799,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -7814,7 +7820,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -7835,7 +7841,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7856,7 +7862,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -7877,7 +7883,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -7898,7 +7904,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="3"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7919,7 +7925,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -7940,7 +7946,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -7961,7 +7967,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="3"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -7982,7 +7988,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -8003,7 +8009,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -8024,7 +8030,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="3"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -8045,7 +8051,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -8066,7 +8072,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -8087,7 +8093,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -8108,7 +8114,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -8129,7 +8135,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="3"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -8150,7 +8156,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -8171,7 +8177,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="3"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -8192,7 +8198,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="3"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -8213,7 +8219,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -8234,7 +8240,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="3"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -8255,7 +8261,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="3"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -8276,7 +8282,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -8297,7 +8303,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="3"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -8318,7 +8324,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="3"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -8339,7 +8345,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="3"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -8360,7 +8366,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="3"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -8381,7 +8387,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="3"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8402,7 +8408,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="3"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -8423,7 +8429,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="3"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -8444,7 +8450,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="3"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -8465,7 +8471,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="3"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -8486,7 +8492,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="3"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -8507,7 +8513,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="3"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -8528,7 +8534,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="3"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -8549,7 +8555,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -8570,7 +8576,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -8591,7 +8597,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -8612,7 +8618,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="3"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -8633,7 +8639,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="3"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -8654,7 +8660,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="3"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -8675,7 +8681,7 @@
       <c r="R122" s="3"/>
       <c r="S122" s="3"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -8696,7 +8702,7 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -8717,7 +8723,7 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -8738,7 +8744,7 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -8759,7 +8765,7 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -8780,7 +8786,7 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -8801,7 +8807,7 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -8822,7 +8828,7 @@
       <c r="R129" s="3"/>
       <c r="S129" s="3"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -8843,7 +8849,7 @@
       <c r="R130" s="3"/>
       <c r="S130" s="3"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -8864,7 +8870,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="3"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -8885,7 +8891,7 @@
       <c r="R132" s="3"/>
       <c r="S132" s="3"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -8906,7 +8912,7 @@
       <c r="R133" s="3"/>
       <c r="S133" s="3"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -8927,7 +8933,7 @@
       <c r="R134" s="3"/>
       <c r="S134" s="3"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -8948,7 +8954,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="3"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -8969,7 +8975,7 @@
       <c r="R136" s="3"/>
       <c r="S136" s="3"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -8990,7 +8996,7 @@
       <c r="R137" s="3"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -9011,7 +9017,7 @@
       <c r="R138" s="3"/>
       <c r="S138" s="3"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -9032,7 +9038,7 @@
       <c r="R139" s="3"/>
       <c r="S139" s="3"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -9053,7 +9059,7 @@
       <c r="R140" s="3"/>
       <c r="S140" s="3"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -9074,7 +9080,7 @@
       <c r="R141" s="3"/>
       <c r="S141" s="3"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -9095,7 +9101,7 @@
       <c r="R142" s="3"/>
       <c r="S142" s="3"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -9116,7 +9122,7 @@
       <c r="R143" s="3"/>
       <c r="S143" s="3"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -9137,7 +9143,7 @@
       <c r="R144" s="3"/>
       <c r="S144" s="3"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -9158,7 +9164,7 @@
       <c r="R145" s="3"/>
       <c r="S145" s="3"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -9179,7 +9185,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="3"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -9200,7 +9206,7 @@
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -9221,7 +9227,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -9242,7 +9248,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -9263,7 +9269,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -9284,7 +9290,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -9305,7 +9311,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -9326,7 +9332,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -9347,7 +9353,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -9368,7 +9374,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -9389,7 +9395,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -9410,7 +9416,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -9431,7 +9437,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -9452,7 +9458,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -9473,7 +9479,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -9494,7 +9500,7 @@
       <c r="R161" s="3"/>
       <c r="S161" s="3"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -9515,7 +9521,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="3"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9536,7 +9542,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="3"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9557,7 +9563,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="3"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9578,7 +9584,7 @@
       <c r="R165" s="3"/>
       <c r="S165" s="3"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9599,7 +9605,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="3"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9620,7 +9626,7 @@
       <c r="R167" s="3"/>
       <c r="S167" s="3"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9641,7 +9647,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="3"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9662,7 +9668,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="3"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9683,7 +9689,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="3"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9704,7 +9710,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="3"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9725,7 +9731,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="3"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9746,7 +9752,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="3"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9767,7 +9773,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="3"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9788,7 +9794,7 @@
       <c r="R175" s="3"/>
       <c r="S175" s="3"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9809,7 +9815,7 @@
       <c r="R176" s="3"/>
       <c r="S176" s="3"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9830,7 +9836,7 @@
       <c r="R177" s="3"/>
       <c r="S177" s="3"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -9851,7 +9857,7 @@
       <c r="R178" s="3"/>
       <c r="S178" s="3"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -9872,7 +9878,7 @@
       <c r="R179" s="3"/>
       <c r="S179" s="3"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -9893,7 +9899,7 @@
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -9914,7 +9920,7 @@
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -9935,7 +9941,7 @@
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -9956,7 +9962,7 @@
       <c r="R183" s="3"/>
       <c r="S183" s="3"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -9977,7 +9983,7 @@
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -9998,7 +10004,7 @@
       <c r="R185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -10019,7 +10025,7 @@
       <c r="R186" s="3"/>
       <c r="S186" s="3"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -10040,7 +10046,7 @@
       <c r="R187" s="3"/>
       <c r="S187" s="3"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -10061,7 +10067,7 @@
       <c r="R188" s="3"/>
       <c r="S188" s="3"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -10082,7 +10088,7 @@
       <c r="R189" s="3"/>
       <c r="S189" s="3"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -10103,7 +10109,7 @@
       <c r="R190" s="3"/>
       <c r="S190" s="3"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -10124,7 +10130,7 @@
       <c r="R191" s="3"/>
       <c r="S191" s="3"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -10145,7 +10151,7 @@
       <c r="R192" s="3"/>
       <c r="S192" s="3"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -10166,7 +10172,7 @@
       <c r="R193" s="3"/>
       <c r="S193" s="3"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -10187,7 +10193,7 @@
       <c r="R194" s="3"/>
       <c r="S194" s="3"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -10208,7 +10214,7 @@
       <c r="R195" s="3"/>
       <c r="S195" s="3"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -10229,7 +10235,7 @@
       <c r="R196" s="3"/>
       <c r="S196" s="3"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -10250,7 +10256,7 @@
       <c r="R197" s="3"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -10271,7 +10277,7 @@
       <c r="R198" s="3"/>
       <c r="S198" s="3"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -10292,7 +10298,7 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -10313,7 +10319,7 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -10418,27 +10424,27 @@
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="4" customWidth="1"/>
-    <col min="16" max="19" width="11.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="4" customWidth="1"/>
-    <col min="22" max="26" width="11.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="8.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="13.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="4" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" style="4" customWidth="1"/>
+    <col min="16" max="19" width="11.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="12.7265625" style="4" customWidth="1"/>
+    <col min="22" max="26" width="11.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -10449,46 +10455,46 @@
         <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>11</v>
@@ -10497,19 +10503,19 @@
         <v>10</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y1" s="7" t="s">
         <v>7</v>
@@ -10518,131 +10524,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
@@ -10676,21 +10682,21 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="6"/>
-    <col min="12" max="12" width="10.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.1796875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="6"/>
+    <col min="12" max="12" width="10.26953125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10713,16 +10719,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>7</v>
@@ -10753,19 +10759,19 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="9"/>
-    <col min="3" max="4" width="8.7109375" style="4"/>
-    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
-    <col min="6" max="27" width="8.7109375" style="4"/>
-    <col min="28" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="9"/>
+    <col min="3" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="10.1796875" style="4" customWidth="1"/>
+    <col min="6" max="27" width="8.7265625" style="4"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>130</v>
@@ -10798,197 +10804,197 @@
   <dimension ref="A1:R250"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="R4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="R5" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="R7" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>470</v>
+      </c>
+      <c r="R8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
         <v>165</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O9" t="s">
         <v>411</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q9" t="s">
         <v>471</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R9" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M9" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
         <v>166</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O10" t="s">
         <v>412</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q10" t="s">
         <v>472</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>167</v>
-      </c>
-      <c r="O10" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>473</v>
-      </c>
-      <c r="R10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -11011,98 +11017,98 @@
         <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R11" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="R12" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="M13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="Q13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="M14" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>476</v>
+      </c>
+      <c r="R14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
         <v>171</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
         <v>417</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q15" t="s">
         <v>477</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
         <v>172</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>418</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q16" t="s">
         <v>478</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R16" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
-        <v>173</v>
-      </c>
-      <c r="O16" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>479</v>
-      </c>
-      <c r="R16" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -11131,19 +11137,19 @@
         <v>126</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R17" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -11157,19 +11163,19 @@
         <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Q18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="R18" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -11183,19 +11189,19 @@
         <v>92</v>
       </c>
       <c r="M19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R19" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -11209,19 +11215,19 @@
         <v>93</v>
       </c>
       <c r="M20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="R20" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -11235,19 +11241,19 @@
         <v>94</v>
       </c>
       <c r="M21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R21" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -11261,19 +11267,19 @@
         <v>95</v>
       </c>
       <c r="M22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Q22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R22" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -11284,19 +11290,19 @@
         <v>61</v>
       </c>
       <c r="M23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="R23" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -11307,13 +11313,13 @@
         <v>87</v>
       </c>
       <c r="M24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -11324,13 +11330,13 @@
         <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>68</v>
       </c>
@@ -11338,13 +11344,13 @@
         <v>98</v>
       </c>
       <c r="M26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>69</v>
       </c>
@@ -11352,260 +11358,260 @@
         <v>100</v>
       </c>
       <c r="M27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>70</v>
       </c>
       <c r="M28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="M29" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O29" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="M30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O30" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>73</v>
       </c>
       <c r="M31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>74</v>
       </c>
       <c r="M32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O32" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O33" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>76</v>
       </c>
       <c r="M34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O34" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="M35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>78</v>
       </c>
       <c r="M36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O36" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>79</v>
       </c>
       <c r="M37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O37" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>80</v>
       </c>
       <c r="M38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O38" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>82</v>
       </c>
       <c r="M39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O39" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>84</v>
       </c>
       <c r="M40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>85</v>
       </c>
       <c r="M41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O41" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>88</v>
       </c>
       <c r="M42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O42" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>89</v>
       </c>
       <c r="M43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O43" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>90</v>
       </c>
       <c r="M44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O44" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>91</v>
       </c>
       <c r="M45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O45" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>96</v>
       </c>
       <c r="M46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O46" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>99</v>
       </c>
       <c r="M47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O47" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>101</v>
       </c>
       <c r="M48" t="s">
+        <v>203</v>
+      </c>
+      <c r="O48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M49" t="s">
         <v>204</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O49" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M49" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M50" t="s">
         <v>205</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O50" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M50" t="s">
-        <v>206</v>
-      </c>
-      <c r="O50" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -11634,13 +11640,13 @@
         <v>117</v>
       </c>
       <c r="M51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -11669,13 +11675,13 @@
         <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O52" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11704,13 +11710,13 @@
         <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O53" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -11730,22 +11736,22 @@
         <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I54" t="s">
         <v>41</v>
       </c>
       <c r="M54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O54" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -11774,13 +11780,13 @@
         <v>45</v>
       </c>
       <c r="M55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O55" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -11806,13 +11812,13 @@
         <v>45</v>
       </c>
       <c r="M56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O56" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -11832,13 +11838,13 @@
         <v>47</v>
       </c>
       <c r="M57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O57" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -11858,13 +11864,13 @@
         <v>48</v>
       </c>
       <c r="M58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O58" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -11884,13 +11890,13 @@
         <v>49</v>
       </c>
       <c r="M59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O59" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -11910,13 +11916,13 @@
         <v>50</v>
       </c>
       <c r="M60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>36</v>
       </c>
@@ -11933,13 +11939,13 @@
         <v>34</v>
       </c>
       <c r="M61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O61" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>41</v>
       </c>
@@ -11956,15 +11962,15 @@
         <v>38</v>
       </c>
       <c r="M62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C63" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D63" t="s">
         <v>41</v>
@@ -11976,15 +11982,15 @@
         <v>40</v>
       </c>
       <c r="M63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -11996,10 +12002,10 @@
         <v>44</v>
       </c>
       <c r="M64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>36</v>
       </c>
@@ -12010,121 +12016,133 @@
         <v>128</v>
       </c>
       <c r="M65" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
         <v>129</v>
       </c>
       <c r="M66" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>641</v>
+      </c>
+      <c r="C67" t="s">
+        <v>641</v>
+      </c>
+      <c r="M67" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M67" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>640</v>
+      </c>
+      <c r="C68" t="s">
+        <v>640</v>
+      </c>
+      <c r="M68" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M68" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M69" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M69" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M70" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M70" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M71" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M71" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M72" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M72" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M73" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M73" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M74" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M74" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M75" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M75" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>628</v>
+      </c>
+      <c r="B76" t="s">
+        <v>629</v>
+      </c>
+      <c r="M76" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>629</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
         <v>630</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M77" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
         <v>631</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>632</v>
-      </c>
-      <c r="M78" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M79" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M79" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M80" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M80" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M81" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M81" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M82" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M82" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M83" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M83" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>33</v>
       </c>
@@ -12133,10 +12151,10 @@
         <v xml:space="preserve">$L2 = "&amp;A84&amp;", </v>
       </c>
       <c r="M84" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -12145,10 +12163,10 @@
         <v xml:space="preserve">$L2 = "&amp;A85&amp;", </v>
       </c>
       <c r="M85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -12157,10 +12175,10 @@
         <v xml:space="preserve">$L2 = "&amp;A86&amp;", </v>
       </c>
       <c r="M86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>43</v>
       </c>
@@ -12169,10 +12187,10 @@
         <v xml:space="preserve">$L2 = "&amp;A87&amp;", </v>
       </c>
       <c r="M87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -12181,10 +12199,10 @@
         <v xml:space="preserve">$L2 = "&amp;A88&amp;", </v>
       </c>
       <c r="M88" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -12193,10 +12211,10 @@
         <v xml:space="preserve">$L2 = "&amp;A89&amp;", </v>
       </c>
       <c r="M89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -12205,10 +12223,10 @@
         <v xml:space="preserve">$L2 = "&amp;A90&amp;", </v>
       </c>
       <c r="M90" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -12217,10 +12235,10 @@
         <v xml:space="preserve">$L2 = "&amp;A91&amp;", </v>
       </c>
       <c r="M91" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>50</v>
       </c>
@@ -12229,804 +12247,804 @@
         <v xml:space="preserve">$L2 = "&amp;A92&amp;", </v>
       </c>
       <c r="M92" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B93" t="str">
         <f>_xlfn.CONCAT(B84:B92)</f>
         <v xml:space="preserve">$L2 = "&amp;A84&amp;", $L2 = "&amp;A85&amp;", $L2 = "&amp;A86&amp;", $L2 = "&amp;A87&amp;", $L2 = "&amp;A88&amp;", $L2 = "&amp;A89&amp;", $L2 = "&amp;A90&amp;", $L2 = "&amp;A91&amp;", $L2 = "&amp;A92&amp;", </v>
       </c>
       <c r="M93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
+        <v>634</v>
+      </c>
+      <c r="M94" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M95" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M96" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M99" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M100" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M105" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M107" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M108" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M109" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M110" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M111" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M112" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M114" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M116" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M117" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M118" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M119" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M120" t="s">
         <v>635</v>
       </c>
-      <c r="M94" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M95" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M97" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M98" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="99" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M99" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="100" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M100" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="101" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M101" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M102" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M104" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="105" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M105" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="106" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M106" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="107" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M107" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="108" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M108" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M110" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M111" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="112" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M112" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M113" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M114" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M115" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M116" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M117" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M118" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M119" t="s">
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M121" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M120" t="s">
+    <row r="122" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M122" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M124" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="121" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M121" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M122" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M123" t="s">
+    <row r="125" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M125" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M124" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M125" t="s">
+    <row r="126" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M126" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="126" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M126" t="s">
+    <row r="127" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M127" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="127" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M127" t="s">
+    <row r="128" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M128" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M128" t="s">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M129" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M129" t="s">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M130" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M130" t="s">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M131" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M131" t="s">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M132" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M132" t="s">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M133" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M133" t="s">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M134" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M134" t="s">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M135" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M135" t="s">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M136" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M136" t="s">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M137" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M137" t="s">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M138" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M138" t="s">
+    <row r="139" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M139" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M139" t="s">
+    <row r="140" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M140" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="140" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M140" t="s">
+    <row r="141" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M141" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="141" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M141" t="s">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M142" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M142" t="s">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M143" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M143" t="s">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M144" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M144" t="s">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M145" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M145" t="s">
+    <row r="146" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M146" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="146" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M146" t="s">
+    <row r="147" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M147" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M147" t="s">
+    <row r="148" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M148" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M148" t="s">
+    <row r="149" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M149" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="149" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M149" t="s">
+    <row r="150" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M150" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="150" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M150" t="s">
+    <row r="151" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M151" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="151" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M151" t="s">
+    <row r="152" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M152" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M152" t="s">
+    <row r="153" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M153" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M153" t="s">
+    <row r="154" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M154" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M154" t="s">
+    <row r="155" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M155" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M155" t="s">
+    <row r="156" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M156" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M156" t="s">
+    <row r="157" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M157" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="157" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M157" t="s">
+    <row r="158" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M158" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M158" t="s">
+    <row r="159" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M159" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M159" t="s">
+    <row r="160" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M160" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="160" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M160" t="s">
+    <row r="161" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M161" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M161" t="s">
+    <row r="162" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M162" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="162" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M162" t="s">
+    <row r="163" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M163" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="163" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M163" t="s">
+    <row r="164" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M164" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="164" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M164" t="s">
+    <row r="165" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M165" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M165" t="s">
+    <row r="166" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M166" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M166" t="s">
+    <row r="167" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M167" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="167" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M167" t="s">
+    <row r="168" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M168" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="168" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M168" t="s">
+    <row r="169" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M169" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M169" t="s">
+    <row r="170" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M170" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M170" t="s">
+    <row r="171" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M171" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M172" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="171" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M171" t="s">
+    <row r="173" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M173" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M174" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M175" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M176" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M177" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M178" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M179" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M180" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M181" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M182" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M183" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M184" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M185" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M186" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M187" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M188" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M172" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="173" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M173" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="174" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M174" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="175" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M175" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="176" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M176" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M177" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="178" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M178" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="179" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M179" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="180" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M180" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="181" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M181" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="182" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M182" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="183" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M183" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="184" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M184" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M185" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M186" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M187" t="s">
+    <row r="189" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M189" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M188" t="s">
+    <row r="190" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M190" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M191" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M192" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M193" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M194" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M195" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M196" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M197" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M198" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M199" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M200" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M201" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M202" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M203" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M204" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M205" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M207" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M208" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M209" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M210" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M211" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M212" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M213" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M214" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M215" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M216" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M217" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M218" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M219" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M220" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M221" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M189" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="190" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M190" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="191" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M191" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="192" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M192" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="193" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M193" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="194" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M194" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="195" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M195" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="196" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M196" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="197" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M197" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="198" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M198" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="199" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M199" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="200" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M200" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="201" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M201" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="202" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M202" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="203" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M203" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="204" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M204" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="205" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M205" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="206" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M206" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="207" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M207" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="208" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M208" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M209" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="210" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M210" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="211" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M211" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="212" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M212" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="213" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M213" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="214" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M214" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="215" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M215" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="216" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M216" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="217" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M217" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="218" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M218" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="219" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M219" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="220" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M220" t="s">
+    <row r="222" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M222" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="221" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M221" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="222" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M222" t="s">
+    <row r="223" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M223" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="223" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M223" t="s">
+    <row r="224" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M224" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="224" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M224" t="s">
+    <row r="225" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M225" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="225" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M225" t="s">
+    <row r="226" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M226" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="226" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M226" t="s">
+    <row r="227" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M227" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="227" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M227" t="s">
+    <row r="228" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M228" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="228" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M228" t="s">
+    <row r="229" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M229" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M229" t="s">
+    <row r="230" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M230" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M230" t="s">
+    <row r="231" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M231" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="231" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M231" t="s">
+    <row r="232" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M232" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="232" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M232" t="s">
+    <row r="233" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M233" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="233" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M233" t="s">
+    <row r="234" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M234" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="234" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M234" t="s">
+    <row r="235" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M235" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M235" t="s">
+    <row r="236" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M236" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="236" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M236" t="s">
+    <row r="237" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M237" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="237" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M237" t="s">
+    <row r="238" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M238" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="238" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M238" t="s">
+    <row r="239" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M239" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="239" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M239" t="s">
+    <row r="240" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M240" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="240" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M240" t="s">
+    <row r="241" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M241" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="241" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M241" t="s">
+    <row r="242" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M242" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="242" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M242" t="s">
+    <row r="243" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M243" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="243" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M243" t="s">
+    <row r="244" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M244" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="244" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M244" t="s">
+    <row r="245" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M245" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="245" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M245" t="s">
+    <row r="246" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M246" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M246" t="s">
+    <row r="247" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M247" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="247" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M247" t="s">
+    <row r="248" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M248" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="248" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M248" t="s">
+    <row r="249" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M249" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="249" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M249" t="s">
+    <row r="250" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M250" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="250" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M250" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -13044,416 +13062,416 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.7109375" customWidth="1"/>
+    <col min="7" max="14" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" t="s">
         <v>586</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>587</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>588</v>
       </c>
-      <c r="D1" t="s">
-        <v>589</v>
-      </c>
       <c r="E1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G1" t="s">
         <v>606</v>
       </c>
-      <c r="F1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>607</v>
       </c>
-      <c r="H1" t="s">
-        <v>608</v>
-      </c>
       <c r="I1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J1" t="s">
         <v>594</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>595</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>596</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>597</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>598</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>599</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>600</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>601</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>602</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>603</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>604</v>
       </c>
-      <c r="T1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H2" t="s">
+        <v>534</v>
+      </c>
+      <c r="I2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L2" t="s">
+        <v>559</v>
+      </c>
+      <c r="M2" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" t="s">
+        <v>561</v>
+      </c>
+      <c r="O2" t="s">
+        <v>563</v>
+      </c>
+      <c r="P2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>568</v>
+      </c>
+      <c r="R2" t="s">
+        <v>571</v>
+      </c>
+      <c r="S2" t="s">
+        <v>573</v>
+      </c>
+      <c r="T2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>487</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>492</v>
       </c>
-      <c r="C2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>496</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>499</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>520</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>523</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>535</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>546</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>552</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>557</v>
       </c>
-      <c r="L2" t="s">
-        <v>560</v>
-      </c>
-      <c r="M2" t="s">
-        <v>561</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>562</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O3" t="s">
         <v>564</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P3" t="s">
         <v>566</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
         <v>569</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>572</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>574</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>488</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>493</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>497</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>500</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>521</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>524</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>536</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>547</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>553</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>558</v>
       </c>
-      <c r="N3" t="s">
-        <v>563</v>
-      </c>
-      <c r="O3" t="s">
-        <v>565</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="P4" t="s">
         <v>567</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q4" t="s">
         <v>570</v>
       </c>
-      <c r="R3" t="s">
-        <v>573</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="S4" t="s">
         <v>575</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>489</v>
       </c>
-      <c r="B4" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>501</v>
       </c>
-      <c r="F4" t="s">
-        <v>522</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>525</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>537</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>548</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>554</v>
       </c>
-      <c r="K4" t="s">
-        <v>559</v>
-      </c>
-      <c r="P4" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>571</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="S5" t="s">
         <v>576</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>490</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>502</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>526</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>538</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>549</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" t="s">
         <v>555</v>
       </c>
-      <c r="S5" t="s">
-        <v>577</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="T6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>491</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
         <v>503</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>527</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>539</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>550</v>
       </c>
-      <c r="J6" t="s">
-        <v>556</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="T7" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
         <v>504</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>528</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>540</v>
       </c>
-      <c r="I7" t="s">
-        <v>551</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T8" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
         <v>505</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>529</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>541</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T9" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>506</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>530</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>542</v>
       </c>
-      <c r="T9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
         <v>507</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>531</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
         <v>508</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>532</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
         <v>509</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>533</v>
       </c>
-      <c r="H12" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
         <v>510</v>
       </c>
-      <c r="G13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak1\Dropbox (ORNL)\Armstrong Work\DOE VERIFI\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroot\dev\VERIFI\src\assets\csv_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71FEF3C-D2BF-4B76-8166-B2FAB7BD64C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FFBF08-41DD-4E74-9E85-4C135CF4AA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2740,7 +2740,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -3271,299 +3271,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3585,428 +3292,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA44BA1C-33AA-438B-A66F-EC8668F3990F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609601" y="2095500"/>
-          <a:ext cx="12801600" cy="12449175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>More Details</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>This</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> template is used both for setting up an initial data upload and for updating VERIFI each month, if you choose not to enter data manually within VERIFI. When uploading, you will be able to either replace your existing data (if you changed or updated some value entered previously) or ignore existing data and only upload what is new. When entering new data into the template, there is no need to sort by meter or date - VERIFI will use the meter number and date columns to separate and parse the data appropriately. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>This worksheet is password protected to protect the column names.  If you need to unlock it to modify the column widths or other things to better match your facility, the password is "VERIFI" but PLEASE do not change the column names (with the exception of the Predictors tab) as that will break VERIFI's ability to import data from this template.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Facilities</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>First</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> start with the Facilities Tab, where you will setup the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>different facilities </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>in your company. Here the only required field is Facility Name, which used as a unique identifier for each set of data. This can be used to setup all your facilities and then the rest of the tabs left blank and you can use an alternative means of entering your meter setup and billing data. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Meters-Utilities</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Next you have the Meters-Utilities</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> Tab where you will setup the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>different metered inputs </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>into your facilities. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>You can add</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> an entry for each meter in your facilities, or rollup similar meters together. If you choose to add an entry for each incoming meter, VERIFI can help you merge them in the "Meter Grouping" section, so you can group all your electricity or other utilities together for analysis.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Each column represents a data point to help VERIFI setup a meter:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Facility Name </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>is used to assign meters to the different facilities. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>THIS IS REQUIRED.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Meter Number</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned name (not just numbers) to keep all your energy uses separate. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>THIS IS REQUIRED.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Source</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> represents the type of data being monitored: Electricity, Natural Gas, Other Fuels, Water, Wastewater, or other Utilities.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Phase and Fuel </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>are only used for "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Other Fuels</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>" and help set the possible values for "Collection Unit".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Collection Unit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is the unit you are billed for (Natural Gas could be in MMBTU or in SCF)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Heat Capacity </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is the energy used for each unit of the collection unit (if the collection unit is not already an energy unit). VERIFI has some default values for this if you are unsure.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Account Number, Meter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> Name, Utility Supplier, Notes, Building/Location </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>are all for your own note keeping / ease of use.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Meter Group </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>can be set in VERIFI and allows you to group multiple meters together for analysis.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Site-to-Source</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> is a factor used to convert site energy to source energy for Better Plants Reporting. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Most </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0"/>
-            <a:t>electricity it is usually estimated as 3, but on-site generated renewables (solar/wind) it is usually estimated as 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>. For more details, please see the Better Plants Energy Baselining and Tracking Guidance Document. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Once this is setup, you should not need to enter data here again.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Meter Data Entry</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When entering data, each row </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>represents a month for a single meter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  Including the meter number for each row allows you to enter data for all electricity meters on the same import file. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>You also do not have to "calendarize" your data before hand: if your meter is read in the middle of the month, VERIFI will help adjust your data to monthly data.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Electricity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>The Electricity Tab is where you enter the data for your electricity meters.  Electricity is a separate entry because VERIFI allows you to track a lot more data for electricity (such as data relating to demand and other charges) to help you perform an Electricity Meter Analysis. Be sure to specify your facility name and the meter number for each data row</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Non-electricity</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>This tab is where you enter data for any other utility you wish to track, just be sure to have the facility name and correct meter number for each row.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Predictors</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>This tab is where you enter data pertaining to any predictors for correlation or regression analysis (weather data, production data, etc.).  On this tab, you can change the column names to match your facilities' preference (with the exception of "Date" and "Facility Name"). Be sure to have your facility name for each row.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4139,123 +3424,109 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>277090</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>33975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B5D9A8-9DCD-C04F-BE97-155F451BD77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212272" y="2130136"/>
+          <a:ext cx="14218227" cy="13905839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47776</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD28A103-51EA-49CA-818C-92481543DBC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C529ACFE-B65E-3E26-F741-AB4C1DE7FA1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="952500"/>
-          <a:ext cx="12182475" cy="3428999"/>
+          <a:off x="3009900" y="1476375"/>
+          <a:ext cx="7772400" cy="2190901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Facilities Help - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>You can move or delete this text box</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t> as you enter data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>This page allows you to enter information about your facilities.  </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>The only REQUIRED field here is the Facility Name. All the other data can be entered in VERIFI if you which, but it may be easier to get started here, especially if you have a lot of facilities.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>This can be used to setup all your facilities and then the rest of the tabs left blank and you can use an alternative means of entering your meter setup and billing data. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" baseline="0"/>
-            <a:t>You can copy and paste text, but should do so as "Paste as text"</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4263,437 +3534,54 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>348599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABFE162-DDD1-4A82-8DF9-1606D8A78C20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13EFD03-B168-13F1-BB55-E401397ECBC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="942975" y="762000"/>
-          <a:ext cx="14725650" cy="10062883"/>
+          <a:off x="2028825" y="1076325"/>
+          <a:ext cx="9978374" cy="6819900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Meters / Utilities Help - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>You can move or delete this text box as you enter data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>This </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>where you will setup the </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>different metered inputs </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>into your facilities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>To make setup faster - you can copy and paste any field's text, but should do so using "Paste as text" to perserve the formatting.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>In VERIFI a "Meter" is the general term used for a type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> of utilities with a bill specifically for it and can include electricity, natural gas, water, other fuels, other energy sources, RECS, and more. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>You can add</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> an entry for each meter or bill in your facilities, or rollup similar entries together off sheet. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>If you choose to add an entry for each incoming meter, VERIFI can help you merge them in the "Meter Grouping" section or with the column "Meter Group". This allows you to group all your electricity or other utilities together for analysis, but still view them individually. You can even group all process electricity in one group and baseload electricity in another.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng"/>
-            <a:t>Most columns</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t> can be edited within VERIFI after data has been entered</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>Each column represents a data point to help VERIFI setup a meter:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng"/>
-            <a:t>Facility Name </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>is used to assign meters to the different facilities. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>THIS IS REQUIRED.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng"/>
-            <a:t>Meter Number</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is used as a unique identifier for each data stream, it can be your actual meter number or a self assigned name (not just numbers) to keep all your energy uses separate. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>THIS IS REQUIRED AND MUST BE UNIQUE. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-            <a:t>If you do not want to use meter numbers, then names like "Facility A - Electricity" are great.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Source</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> represents the type of data being monitored: Electricity, Natural Gas, Other Fuels, Water, Wastewater, or other Utilities. If you do not have an entry - then VERIFI will default to electricity. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Phase </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" u="none" baseline="0"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t> Fuel </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>are only used for "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Other Fuels</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>" and help set the possible values for "Collection Unit".</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Collection Unit </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is the unit you are billed on (Natural Gas could be in MMBTU or in SCF). If you do not have an entry - the VERIFI will default to your facility's defaults from the settings page </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Heat Capacity </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is the energy used for each unit of the collection unit (if the collection unit is not already an energy unit). </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0"/>
-            <a:t>VERIFI has values for most fuels: if you are unsure you can leave this blank.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng"/>
-            <a:t>Account Number, Meter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t> Name, Utility Supplier, Notes, Building/Location </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>are all for your own note keeping / ease of use.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Meter Group </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>can be set in VERIFI and allows you to group multiple meters together for analysis.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Site-to-Source</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> is a factor used to convert site energy to source energy for Better Plants Reporting. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>Most </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0"/>
-            <a:t>electricity it is usually estimated as 3, but on-site generated renewables (solar/wind) it is usually estimated as 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>. For more details, please see the Better Plants Energy Baselining and Tracking Guidance Document. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Calendarize Data? </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is used to designate if you want to have your data calendarized (bills reallocated to match calendar months) or not (designate July as "7-1-YYYY"). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Scope</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> is used to define the GHG Scope (Scope 1 vs Scope 2). VERIFI will assign values to this based on the Source for the meter.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Agreement Type </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is used only for Electricity - and will help set default values for Site-to-Source and the GHG emissions from the meter</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t>Include in Energy </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Retain RECs </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>is used only for Electricity - and will help set default values for Site-to-Source and the GHG emissions from the meter and can be auto assigned based on Agreement type</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>Once this page is setup, you should not need to enter data here again unless you add facilities or meters.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4701,390 +3589,54 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DBFD2D-3FE5-4E58-885F-A940FEBE26F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB30291B-B559-A84F-19B9-E251FCE04203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="952500"/>
-          <a:ext cx="14535150" cy="4572000"/>
+          <a:off x="1162050" y="1076324"/>
+          <a:ext cx="13517410" cy="4257675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Electricity Meter Data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-            <a:t> Entry </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Help - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>You can move or delete this text box as you enter data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>This </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>where you will enter </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-            <a:t>electricity bill data </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>for your facilities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t>For VERIFI electricity meters also include self-generated electricity (solar/wind), PPPAs, VPPAs, RECS, etc.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When entering data, each row </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>represents a single bill's electricity use for a single meter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  For most electricity bills, this would occur once a month, but for things like RECs, you might be billed quarterly  (see the Calendarization for more help with quarterly data).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Meter Number, Read Date, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Total Consumption </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>columns are all required</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Including the meter number for each row allows you to enter data for all electricity meters across all your facilities in the same import file. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Calendarization</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* You also do not have to "calendarize" your data before hand: if your meter is read in the middle of the month, VERIFI will help adjust your data to monthly data, just put in the meter read date.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* If your data is already calendarized - enter your date as the first of the month and select "No" for "Calendarize Data?" in the previous tab or select "Do not calendarize" within VERIFI upon upload.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* To enter quarterly bills, like for RECs, enter the bill date as the last day of the quarter. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When getting started </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- to ensure your first year has a full 12 month - be sure to enter something for the month before you have actual data, even it if is a "bill" with a guessed date (or for quarterly the last day of the previous quarter) with a Total Consumption of 0. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Most of the columns in this tab are not required (everything after "Total Consumption") for upload and energy efficiency analyses. They are used for billing and cost analyses and demand analyses (which are not yet available in VERIFI). </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5092,407 +3644,54 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57256</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7536D981-9E4F-470C-92FA-8B6AF041F89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA7D0B0-7B73-4961-DB59-0818F5C7B080}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="942975" y="952500"/>
-          <a:ext cx="14630400" cy="4572000"/>
+          <a:off x="1781175" y="1524000"/>
+          <a:ext cx="12115906" cy="3790950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Non-Electricity Meter Data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-            <a:t> Entry </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Help - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>You can move or delete this text box as you enter data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>where you will enter </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>non-electricity bill data </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>for your facilities including natural gas, other fuels (propane, coke oven gas), other energy sources (steam, compressed air), and other utilities (water, wastewater, refrigerant). </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When entering data, each row </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>represents a single bill's utility use for a single meter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  For most electricity bills, this would occur once a month, but for some utilities, you might be billed quarterly (see the Calendarization for more help with quarterly data). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Meter Number, Read Date, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>and</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Total Consumption </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>columns are all required</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Including the meter number for each row allows you to enter data for all additional meters across all your facilities in the same import file. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Calendarization</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* You also do not have to "calendarize" your data before hand: if your meter is read in the middle of the month, VERIFI will help adjust your data to monthly data, just put in the meter read date.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* If your data is already calendarized - enter your date as the first of the month and select "No" for "Calendarize Data?" in the previous tab or select "Do not calendarize" within VERIFI upon upload.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* To enter quarterly bills, like for RECs, enter the bill date as the last day of the quarter. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>* </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When getting started </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- to ensure your first year has a full 12 month - be sure to enter something for the month before you have actual data, even it if is a "bill" with a guessed date (or for quarterly the last day of the previous quarter) with a Total Consumption of 0. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Most of the columns in this tab are not required (everything after "Total Consumption") for upload and energy efficiency analyses. They are used for billing and cost analyses and demand analyses (which are not yet available in VERIFI). </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5500,245 +3699,54 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>270533</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D4B6D4-62A3-4C95-B254-F4EFB952C24A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B553CF8-EDA9-9166-813A-B64957FDABAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="952500"/>
-          <a:ext cx="12134850" cy="4471147"/>
+          <a:off x="1962150" y="1114424"/>
+          <a:ext cx="9995558" cy="3686175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Predictor Data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-            <a:t> Entry </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" b="1"/>
-            <a:t>Help - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1"/>
-            <a:t>You can move or delete this text box as you enter data</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>where you will enter </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>data any quantifiable variable that could influence your energy use at</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> your facilities such as heating degree days, cooling degree days, production variables, humidity, average daily temperature, etc. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>When entering data, each row </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>represents a single month's predictors</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.  Enter dates as the first of the month. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" u="sng" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Facility Name and Date</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>  are the only </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>columns required. Names for predictors are also required.  Each row does not have to an entry for a predictor.  If a predictor variable is only applicable to one facility, you can leave the value blank for any facility that does not use it and VERIFI will remove that predictor from the list for that facility. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6044,8 +4052,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B7:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6096,7 +4104,7 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8773,7 +6781,7 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13566,8 +11574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7080E26A-D837-4A48-9A9A-3D27BF709F7E}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,7 +11725,7 @@
         <v/>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(B3="Electricity",A3,"")</f>
+        <f t="shared" ref="C3:C13" si="0">IF(B3="Electricity",A3,"")</f>
         <v/>
       </c>
       <c r="D3" t="str">
@@ -13746,7 +11754,7 @@
         <v/>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="1">IF(B4&lt;&gt;"Electricity",A4,"")</f>
+        <f t="shared" ref="D4:D13" si="1">IF(B4&lt;&gt;"Electricity",A4,"")</f>
         <v/>
       </c>
     </row>

--- a/src/assets/csv_templates/VERIFI-Import-Data.xlsx
+++ b/src/assets/csv_templates/VERIFI-Import-Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF839F0-34F7-4C53-BA1F-F01BC2514E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA5555-7517-4611-BEF5-7D1ECA40B486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="8" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="683">
   <si>
     <t>Color Guide</t>
   </si>
@@ -2182,12 +2182,6 @@
   </si>
   <si>
     <t>Externally Recycled Water</t>
-  </si>
-  <si>
-    <t>Test Facility</t>
-  </si>
-  <si>
-    <t>kCF</t>
   </si>
 </sst>
 </file>
@@ -2352,11 +2346,466 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2426,146 +2875,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
@@ -2594,6 +2903,13 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2750,6 +3066,104 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26203</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AC9816-C87A-FC16-33AA-A33352D640FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="762000"/>
+          <a:ext cx="12199153" cy="3444539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>907290</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>30379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F639C5-1405-9798-78FC-984355107B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1657350" y="771525"/>
+          <a:ext cx="14680440" cy="12022354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2794,20 +3208,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>537763</xdr:colOff>
+      <xdr:colOff>547288</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>55793</xdr:rowOff>
+      <xdr:rowOff>46268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2830,7 +3244,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="762000"/>
+          <a:off x="1657350" y="752475"/>
           <a:ext cx="15168163" cy="10723793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2843,7 +3257,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3250,8 +3664,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B7:M9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,9 +3771,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -5946,14 +6358,14 @@
       <c r="K200" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A200">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>AND($A2="", OR($B2&lt;&gt;"",$C2&lt;&gt;"",$D2&lt;&gt;"",$E2&lt;&gt;"",$F2&lt;&gt;"",$G2&lt;&gt;"",$H2&lt;&gt;"", $I2&lt;&gt;"",$K2&lt;&gt;"",$J2&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="A3:K200">
+    <cfRule type="expression" dxfId="77" priority="2">
+      <formula>$A2 = ""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:K200">
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>$A2 = ""</formula>
+  <conditionalFormatting sqref="A2:A200">
+    <cfRule type="expression" dxfId="76" priority="1">
+      <formula>AND($A2="", OR($B2&lt;&gt;"",$C2&lt;&gt;"",$D2&lt;&gt;"",$E2&lt;&gt;"",$F2&lt;&gt;"",$G2&lt;&gt;"",$H2&lt;&gt;"", $I2&lt;&gt;"",$K2&lt;&gt;"",$J2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -5975,6 +6387,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5983,8 +6396,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,28 +6471,18 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B2" s="10">
-        <v>33</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
-        <v>47</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>684</v>
-      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="11"/>
@@ -6109,6 +6512,27 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10"/>
@@ -10247,150 +10671,143 @@
       <c r="S201" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5:A1048576 A1:A3">
-    <cfRule type="expression" dxfId="29" priority="6">
+  <conditionalFormatting sqref="S2:S201">
+    <cfRule type="expression" dxfId="40" priority="30">
+      <formula>OR($D2&lt;&gt;"Electricity",$Q2 = "Grid",$Q2 = "Green Power Product",$Q2 = "Renewable Energy Credits (RECs)",$Q2 ="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J201">
+    <cfRule type="expression" dxfId="39" priority="29">
+      <formula>$D2 &lt;&gt; "Other Fuels"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K201">
+    <cfRule type="expression" dxfId="38" priority="28">
+      <formula>AND($D2 &lt;&gt; "Other Fuels", $D2 &lt;&gt; "Other Energy", $D2 &lt;&gt; "Water Discharge", $D2 &lt;&gt; "Water Intake")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M201">
+    <cfRule type="expression" dxfId="37" priority="25">
+      <formula>OR($L2 = "kWh", $L2 = "MWh", $L2 = "MMBtu", $L2 = "GJ", $L2 = "MJ", $L2 = "kJ", $L2 = "Therms", $L2 = "Dtherms", $L2 = "kcal")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N201">
+    <cfRule type="expression" dxfId="36" priority="24">
+      <formula>OR($D2 = "Water", $D2 = "Waste Water", $D2 = "Other Utility")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:S3 A14:S201 A4:C7 B8:C13 E4:S13 A3:A201">
+    <cfRule type="expression" dxfId="35" priority="21">
+      <formula>AND($A2 = "", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $L2 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q201">
+    <cfRule type="expression" dxfId="34" priority="23">
+      <formula>$D2&lt;&gt;"Electricity"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R201">
+    <cfRule type="expression" dxfId="33" priority="22">
+      <formula>OR($D2&lt;&gt;"Electricity",AND($Q2 &lt;&gt; "Self-Generated", $Q2 &lt;&gt; "Physical Power Purchase Agreement (PPPA)"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A13">
+    <cfRule type="expression" dxfId="32" priority="18">
+      <formula>AND($A8 = "", $B8 = "", $C8 = "", $D8 = "", $E8 = "", $L8 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="31" priority="14">
+      <formula>AND($A7 = "", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $L7 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D13">
+    <cfRule type="expression" dxfId="30" priority="13">
+      <formula>AND($A3 = "", $B3 = "", $C3 = "", $D3 = "", $E3 = "", $L3 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>AND(A1 = "", OR($B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A201 A6:C7 D6:S13">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="expression" dxfId="28" priority="9">
-      <formula>AND($A5 = "", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $L5 = "")</formula>
+      <formula>AND($D1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C13 A14:S201">
-    <cfRule type="expression" dxfId="27" priority="16">
-      <formula>AND($A7 = "", $B7 = "", $C7 = "", $D7 = "", $E7 = "", $L7 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B1048576 B1:B3">
-    <cfRule type="expression" dxfId="26" priority="7">
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="27" priority="12">
       <formula>AND($B1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D1048576 D1:D3">
-    <cfRule type="expression" dxfId="25" priority="4">
-      <formula>AND($D1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J1048576 J1:J3">
-    <cfRule type="expression" dxfId="24" priority="5">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>AND($D1 = "Other Fuels", $J1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J201 J2:J3">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$D2 &lt;&gt; "Other Fuels"</formula>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>AND($D1 = "Other Fuels", $K1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="3">
+      <formula>AND($D1 = "Water Discharge", $K1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>AND($D1 = "Water Intake", $K1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>AND($D1 = "Other Energy", $K1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K1048576 K1:K3">
-    <cfRule type="expression" dxfId="22" priority="3">
-      <formula>AND($D1 = "Other Fuels", $K1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K201 K2:K3">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>AND($D2 &lt;&gt; "Other Fuels", $D2 &lt;&gt; "Other Energy")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L1048576 L1:L3">
-    <cfRule type="expression" dxfId="20" priority="2">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>AND($L1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M201 M2:M3">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR($L2 = "kWh", $L2 = "MWh", $L2 = "MMBtu", $L2 = "GJ", $L2 = "MJ", $L2 = "kJ", $L2 = "Therms", $L2 = "Dtherms", $L2 = "kcal")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:N201 M2:N3">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR($D2 = "Water", $D2 = "Waste Water", $D2 = "Other Utility")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q1048576 Q1:Q3">
-    <cfRule type="expression" dxfId="17" priority="1">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="expression" dxfId="24" priority="6">
       <formula>AND($D1 = "Electricity", $Q1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O1&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q201 Q2:Q3">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D2&lt;&gt;"Electricity"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R201 R2:R3">
-    <cfRule type="expression" dxfId="15" priority="17">
-      <formula>OR($D2&lt;&gt;"Electricity",AND($Q2 &lt;&gt; "Self-Generated", $Q2 &lt;&gt; "Physical Power Purchase Agreement (PPPA)"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S201 S2:S3">
-    <cfRule type="expression" dxfId="14" priority="25">
-      <formula>OR($D2&lt;&gt;"Electricity",$Q2 = "Grid",$Q2 = "Green Power Product",$Q2 = "Renewable Energy Credits (RECs)",$Q2 ="")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:S2">
-    <cfRule type="expression" dxfId="2" priority="30">
-      <formula>AND($A3 = "", $B3 = "", $C3 = "", $D3 = "", $E3 = "", $L3 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2 A3:S3">
-    <cfRule type="expression" dxfId="1" priority="31">
-      <formula>AND(#REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:S5">
-    <cfRule type="expression" dxfId="0" priority="32">
-      <formula>AND($A2 = "", $B2 = "", $C2 = "", $D2 = "", $E2 = "", $L2 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="15">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J5:J201" xr:uid="{8B8D0CC1-864A-4627-A176-E3BDF26006A0}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A201 A2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Names_Facilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D201" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>Sources</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J16 J18:J201 J17" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>INDIRECT(SUBSTITUTE(D2," ","")&amp;"SLG")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K5:K201" xr:uid="{E614341C-F89C-45E3-95A1-EE51BC56F130}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16 K18:K201 K17" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>INDIRECT(SUBSTITUTE(D2," ","")&amp;J2&amp;"Fuel")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A201 A2:A3" xr:uid="{EF43AC51-3B23-401C-B28B-58EEA5AF04FB}">
-      <formula1>Names_Facilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D201 D2:D3" xr:uid="{4B324F48-7105-416C-B6F0-8EDD703041CE}">
-      <formula1>Sources</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L201 L2:L3" xr:uid="{CF13ADE8-BBF8-40E4-870B-8B2ABC12EF85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L201" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>INDIRECT(SUBSTITUTE(D2," ","")&amp;J2&amp;"units")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O201 O2:O3" xr:uid="{9DDFE484-0E6A-4BF8-9204-0588201BC089}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O201" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P201 P2:P3" xr:uid="{3C81B09B-A206-4358-BD2E-6EE4370FE9DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P201" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>Scope</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:Q201 Q11" xr:uid="{C4A58B12-330F-462B-8F22-797F6B7DDC10}">
-      <formula1>IF($D3 = "Electricity",AgreementType_Electricity,BlankList)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12" xr:uid="{503935B5-A0F5-4B3C-880F-12F12BA32DA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10:Q201" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>IF($D2 = "Electricity",AgreementType_Electricity,BlankList)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10" xr:uid="{91436766-7D5A-473C-90A4-DC185BB93B3E}">
-      <formula1>IF(#REF! = "Electricity",AgreementType_Electricity,BlankList)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q201 Q2:Q3" xr:uid="{4F8E8EDF-040B-4084-92D1-A763266BAB27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q201" xr:uid="{00000000-0002-0000-0200-00000E000000}">
       <formula1>IF($D2 = "Electricity",AgreementType_Electricity,BlankList)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13:S201 R11:S11" xr:uid="{A10B0D63-D349-4461-A6F6-64D1C68AA7EF}">
-      <formula1>IF($D3 = "Electricity", YesNo, BlankList)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12:S12" xr:uid="{A0E91B24-F1CB-4815-AAD6-0A63B3C11399}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:S201" xr:uid="{00000000-0002-0000-0200-00000F000000}">
       <formula1>IF($D2 = "Electricity", YesNo, BlankList)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:S10" xr:uid="{57940ED8-2E5D-4F9A-96A3-6947C358B8F3}">
-      <formula1>IF(#REF! = "Electricity", YesNo, BlankList)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:S201 R2:S3" xr:uid="{9D9E9B05-6265-4551-84F6-C2A5D16EE744}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S201" xr:uid="{00000000-0002-0000-0200-000010000000}">
       <formula1>IF($D2 = "Electricity", YesNo, BlankList)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10600,18 +11017,23 @@
       <c r="B34" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:Z34 A35:Z1048576 A3:A1048576">
+    <cfRule type="expression" dxfId="75" priority="5">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:C34 A3:A1048576">
+    <cfRule type="expression" dxfId="74" priority="4">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="73" priority="3">
       <formula>AND(A1 = "", OR($B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O16&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;"",$T1&lt;&gt;"",$U1&lt;&gt;"",$V1&gt;"",$W1&lt;&gt;"",$X1&lt;&gt;"",$Y1&lt;&gt;"",$Z1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:Z1048576">
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>OR($A2="", $B2="", $C2="")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1048546">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>AND(B1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O16&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;"",$T1&lt;&gt;"",$U1&lt;&gt;"",$V1&gt;"",$W1&lt;&gt;"",$X1&lt;&gt;"",$Y1&lt;&gt;"",$Z1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10632,7 +11054,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10688,19 +11110,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A3:L1048576">
+    <cfRule type="expression" dxfId="71" priority="4">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>AND(A1 = "", OR($B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:L1048576">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>OR($A2="", $B2="", $C2="")</formula>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="69" priority="3">
+      <formula>AND(B1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>AND(B1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="expression" dxfId="68" priority="2">
+      <formula>AND(C1 = "", OR($A1&lt;&gt;"",$B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10739,29 +11166,39 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3:AA1048576">
+    <cfRule type="expression" dxfId="67" priority="8">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A1048576">
+    <cfRule type="expression" dxfId="66" priority="6">
+      <formula>OR($A2="", $B2="", $C2="")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="65" priority="4">
       <formula>AND(A1 = "", OR($B1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O16&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;"",$T1&lt;&gt;"",$U1&lt;&gt;"",$V1&gt;"",$W1&lt;&gt;"",$X1&lt;&gt;"",$Y1&lt;&gt;"",$Z1&lt;&gt;"",$AA1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:AA1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>OR($A2="", $B2="", $C2="")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>AND(B1 = "", OR($A1&lt;&gt;"",$C1&lt;&gt;"",$D1&lt;&gt;"",$E1&lt;&gt;"",$F1&lt;&gt;"",$G1&lt;&gt;"",$H1&lt;&gt;"", $I1&lt;&gt;"",$K1&lt;&gt;"",$J1&lt;&gt;"",$L1&lt;&gt;"",$M1&lt;&gt;"",$N1&lt;&gt;"",$O16&lt;&gt;"",$P1&lt;&gt;"",$Q1&lt;&gt;"",$R1&lt;&gt;"",$S1&lt;&gt;"",$T1&lt;&gt;"",$U1&lt;&gt;"",$V1&gt;"",$W1&lt;&gt;"",$X1&lt;&gt;"",$Y1&lt;&gt;"",$Z1&lt;&gt;"",$AA1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>AND(C$1 = "", SUM(C$1:C$100) &lt;&gt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:AA1">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="D1">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>AND(D$1 = "", SUM(D$1:D$100) &lt;&gt; 0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:AA1">
+    <cfRule type="expression" dxfId="61" priority="1">
+      <formula>AND(E$1 = "", SUM(E$1:E$100) &lt;&gt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -10778,7 +11215,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AB206"/>
+  <dimension ref="A1:AB405"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
@@ -10827,37 +11264,37 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <f ca="1">IF(OFFSET('Meters-Utilities'!$B$1,A2,0)=0," - - ", OFFSET('Meters-Utilities'!$B$1,A2,0))</f>
-        <v>33</v>
-      </c>
-      <c r="C2" t="str">
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="C2">
         <f ca="1">OFFSET('Meters-Utilities'!$B$1,A2,2)</f>
-        <v>Natural Gas</v>
-      </c>
-      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="str">
         <f ca="1">IF(B2=0,"",B2)</f>
-        <v>33</v>
+        <v xml:space="preserve"> - - </v>
       </c>
       <c r="E2" t="str">
         <f ca="1">IF(C2=0,"",C2)</f>
-        <v>Natural Gas</v>
+        <v/>
       </c>
       <c r="F2" t="str">
         <f ca="1">IF(E2="Electricity",D2,"")</f>
         <v/>
       </c>
-      <c r="G2">
+      <c r="G2" t="str">
         <f ca="1">IF(OR(E2="Electricity",C2=0),"",D2)</f>
-        <v>33</v>
+        <v/>
       </c>
       <c r="H2" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="H2" ca="1">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.UNIQUE(F2:F201),_xlfn.UNIQUE(F2:F201)&lt;&gt;""))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I2" cm="1">
+      <c r="I2" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="I2" ca="1">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.UNIQUE(G2:G201),_xlfn.UNIQUE(G2:G201)&lt;&gt;""))</f>
-        <v>33</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N2" t="s">
         <v>90</v>
@@ -10866,17 +11303,17 @@
         <f ca="1">IF(O5="yes",COUNTA(S2:S201),COUNTA(H2:H201))</f>
         <v>200</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="str">
         <f ca="1">IF(IF(O$5="yes",$B2,H2) = 0, " - - ", IF(O$5="yes",$B2,H2))</f>
-        <v>33</v>
-      </c>
-      <c r="T2">
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="T2" t="str">
         <f ca="1">IF(IF(P$5="yes",$B2,I2) = 0, " - - ", IF(P$5="yes",$B2,I2))</f>
-        <v>33</v>
+        <v xml:space="preserve"> - - </v>
       </c>
       <c r="U2" t="str">
         <f>IF(Facilities!A2=""," - - ",Facilities!A2)</f>
-        <v>Test Facility</v>
+        <v xml:space="preserve"> - - </v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -10912,7 +11349,7 @@
       </c>
       <c r="Q3">
         <f ca="1">IF(P5="yes",COUNTA(T2:T201),COUNTA(I2:I201))</f>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="S3" t="str">
         <f t="shared" ref="S3:S66" ca="1" si="4">IF(IF(O$5="yes",$B3,H3) = 0, " - - ", IF(O$5="yes",$B3,H3))</f>
@@ -11003,9 +11440,9 @@
         <f ca="1">IFERROR(H2,"yes")</f>
         <v>yes</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="str">
         <f ca="1">IFERROR(I2,"yes")</f>
-        <v>33</v>
+        <v>yes</v>
       </c>
       <c r="S5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11067,21 +11504,21 @@
         <f t="array" aca="1" ref="W6" ca="1">HIDE_Meter_Lists!$S$2:INDEX(S2:S201,N8)</f>
         <v>#REF!</v>
       </c>
-      <c r="X6" cm="1">
-        <f t="array" aca="1" ref="X6:X206" ca="1">HIDE_Meter_Lists!$S$2:INDIRECT(_xlfn.CONCAT("HIDE_Meter_Lists!$S$",HIDE_Meter_Lists!$N$8))</f>
-        <v>33</v>
-      </c>
-      <c r="Y6" cm="1">
-        <f t="array" aca="1" ref="Y6" ca="1">HIDE_Meter_Lists!$T$2:INDIRECT(HIDE_Meter_Lists!$O$9)</f>
-        <v>33</v>
+      <c r="X6" t="str" cm="1">
+        <f t="array" aca="1" ref="X6:X405" ca="1">HIDE_Meter_Lists!$S$2:INDIRECT(_xlfn.CONCAT("HIDE_Meter_Lists!$S$",HIDE_Meter_Lists!$N$8))</f>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Y6" t="str" cm="1">
+        <f t="array" aca="1" ref="Y6:Y405" ca="1">HIDE_Meter_Lists!$T$2:INDIRECT(HIDE_Meter_Lists!$O$9)</f>
+        <v xml:space="preserve"> - - </v>
       </c>
       <c r="Z6" t="str" cm="1">
-        <f t="array" aca="1" ref="Z6" ca="1">Facilities!$A$2:INDIRECT(O13)</f>
-        <v>Test Facility</v>
-      </c>
-      <c r="AB6" cm="1">
-        <f t="array" aca="1" ref="AB6:AB206" ca="1">HIDE_Meter_Lists!$S$2:INDIRECT(HIDE_Meter_Lists!$N$9)</f>
-        <v>33</v>
+        <f t="array" aca="1" ref="Z6:Z7" ca="1">Facilities!$A$2:INDIRECT(O13)</f>
+        <v>Facility Name</v>
+      </c>
+      <c r="AB6" t="str" cm="1">
+        <f t="array" aca="1" ref="AB6:AB405" ca="1">HIDE_Meter_Lists!$S$2:INDIRECT(HIDE_Meter_Lists!$N$9)</f>
+        <v xml:space="preserve"> - - </v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -11131,6 +11568,14 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y7" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Z7">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
       <c r="AB7" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11166,11 +11611,11 @@
       </c>
       <c r="N8">
         <f ca="1">IF(O$5="yes",Q2+Q3+1,Q2+1)</f>
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="O8">
         <f ca="1">IF(P$5="yes",Q2+Q3+1,Q3+1)</f>
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11185,6 +11630,10 @@
         <v xml:space="preserve"> - - </v>
       </c>
       <c r="X8" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Y8" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
@@ -11223,11 +11672,11 @@
       </c>
       <c r="N9" t="str">
         <f ca="1">_xlfn.CONCAT("HIDE_Meter_Lists!$S$",HIDE_Meter_Lists!$N$8)</f>
-        <v>HIDE_Meter_Lists!$S$202</v>
+        <v>HIDE_Meter_Lists!$S$401</v>
       </c>
       <c r="O9" t="str">
         <f ca="1">_xlfn.CONCAT("HIDE_Meter_Lists!$t$",HIDE_Meter_Lists!$O$8)</f>
-        <v>HIDE_Meter_Lists!$t$2</v>
+        <v>HIDE_Meter_Lists!$t$401</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11242,6 +11691,10 @@
         <v xml:space="preserve"> - - </v>
       </c>
       <c r="X9" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Y9" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
@@ -11297,6 +11750,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y10" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB10" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11332,7 +11789,7 @@
       </c>
       <c r="N11">
         <f>COUNTA(Facilities!$A:$A)-1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11347,6 +11804,10 @@
         <v xml:space="preserve"> - - </v>
       </c>
       <c r="X11" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Y11" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
@@ -11402,6 +11863,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y12" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB12" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11437,11 +11902,11 @@
       </c>
       <c r="N13">
         <f>N11+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" t="str">
         <f>"Facilities!$A"&amp;N13</f>
-        <v>Facilities!$A2</v>
+        <v>Facilities!$A1</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -11456,6 +11921,10 @@
         <v xml:space="preserve"> - - </v>
       </c>
       <c r="X13" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
+      <c r="Y13" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
@@ -11508,6 +11977,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y14" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB14" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11557,6 +12030,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y15" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB15" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11609,6 +12086,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y16" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB16" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11658,6 +12139,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y17" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB17" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11707,6 +12192,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y18" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB18" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11756,6 +12245,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y19" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB19" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11805,6 +12298,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y20" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB20" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11854,6 +12351,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y21" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB21" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11903,6 +12404,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y22" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB22" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -11952,6 +12457,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y23" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB23" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12001,6 +12510,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y24" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB24" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12050,6 +12563,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y25" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB25" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12099,6 +12616,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y26" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB26" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12148,6 +12669,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y27" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB27" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12197,6 +12722,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y28" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB28" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12246,6 +12775,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y29" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB29" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12295,6 +12828,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y30" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB30" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12344,6 +12881,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y31" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB31" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12393,6 +12934,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y32" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB32" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12442,6 +12987,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y33" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB33" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12491,6 +13040,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y34" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB34" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12540,6 +13093,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y35" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB35" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12589,6 +13146,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y36" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB36" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12638,6 +13199,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y37" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB37" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12687,6 +13252,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y38" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB38" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12736,6 +13305,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y39" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB39" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12785,6 +13358,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y40" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB40" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12834,6 +13411,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y41" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB41" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12883,6 +13464,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y42" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB42" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12932,6 +13517,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y43" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB43" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -12981,6 +13570,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y44" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB44" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13030,6 +13623,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y45" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB45" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13079,6 +13676,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y46" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB46" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13128,6 +13729,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y47" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB47" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13177,6 +13782,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y48" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB48" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13226,6 +13835,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y49" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB49" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13275,6 +13888,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y50" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB50" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13324,6 +13941,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y51" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB51" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13373,6 +13994,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y52" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB52" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13422,6 +14047,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y53" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB53" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13471,6 +14100,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y54" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB54" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13520,6 +14153,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y55" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB55" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13569,6 +14206,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y56" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB56" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13618,6 +14259,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y57" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB57" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13667,6 +14312,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y58" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB58" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13716,6 +14365,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y59" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB59" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13765,6 +14418,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y60" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB60" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13814,6 +14471,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y61" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB61" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13863,6 +14524,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y62" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB62" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13912,6 +14577,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y63" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB63" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -13961,6 +14630,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y64" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB64" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14010,6 +14683,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y65" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB65" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14059,6 +14736,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y66" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB66" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14108,6 +14789,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y67" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB67" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14157,6 +14842,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y68" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB68" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14206,6 +14895,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y69" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB69" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14255,6 +14948,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y70" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB70" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14304,6 +15001,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y71" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB71" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14353,6 +15054,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y72" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB72" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14402,6 +15107,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y73" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB73" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14451,6 +15160,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y74" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB74" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14500,6 +15213,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y75" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB75" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14549,6 +15266,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y76" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB76" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14598,6 +15319,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y77" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB77" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14647,6 +15372,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y78" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB78" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14696,6 +15425,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y79" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB79" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14745,6 +15478,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y80" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB80" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14794,6 +15531,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y81" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB81" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14843,6 +15584,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y82" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB82" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14892,6 +15637,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y83" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB83" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14941,6 +15690,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y84" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB84" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -14990,6 +15743,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y85" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB85" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15039,6 +15796,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y86" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB86" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15088,6 +15849,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y87" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB87" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15137,6 +15902,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y88" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB88" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15186,6 +15955,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y89" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB89" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15235,6 +16008,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y90" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB90" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15284,6 +16061,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y91" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB91" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15333,6 +16114,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y92" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB92" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15382,6 +16167,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y93" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB93" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15431,6 +16220,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y94" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB94" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15480,6 +16273,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y95" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB95" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15529,6 +16326,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y96" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB96" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15578,6 +16379,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y97" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB97" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15627,6 +16432,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y98" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB98" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15676,6 +16485,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y99" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB99" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15725,6 +16538,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y100" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB100" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15774,6 +16591,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y101" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB101" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15823,6 +16644,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y102" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB102" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15872,6 +16697,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y103" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB103" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15921,6 +16750,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y104" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB104" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -15970,6 +16803,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y105" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB105" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16019,6 +16856,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y106" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB106" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16068,6 +16909,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y107" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB107" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16117,6 +16962,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y108" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB108" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16166,6 +17015,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y109" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB109" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16215,6 +17068,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y110" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB110" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16264,6 +17121,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y111" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB111" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16313,6 +17174,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y112" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB112" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16362,6 +17227,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y113" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB113" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16411,6 +17280,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y114" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB114" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16460,6 +17333,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y115" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB115" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16509,6 +17386,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y116" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB116" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16558,6 +17439,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y117" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB117" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16607,6 +17492,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y118" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB118" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16656,6 +17545,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y119" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB119" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16705,6 +17598,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y120" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB120" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16754,6 +17651,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y121" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB121" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16803,6 +17704,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y122" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB122" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16852,6 +17757,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y123" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB123" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16901,6 +17810,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y124" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB124" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16950,6 +17863,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y125" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB125" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -16999,6 +17916,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y126" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB126" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17048,6 +17969,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y127" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB127" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17097,6 +18022,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y128" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB128" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17146,6 +18075,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y129" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB129" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17195,6 +18128,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y130" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB130" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17244,6 +18181,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y131" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB131" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17293,6 +18234,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y132" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB132" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17342,6 +18287,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y133" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB133" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17391,6 +18340,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y134" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB134" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17440,6 +18393,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y135" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB135" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17489,6 +18446,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y136" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB136" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17538,6 +18499,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y137" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB137" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17587,6 +18552,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y138" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB138" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17636,6 +18605,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y139" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB139" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17685,6 +18658,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y140" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB140" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17734,6 +18711,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y141" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB141" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17783,6 +18764,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y142" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB142" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17832,6 +18817,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y143" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB143" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17881,6 +18870,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y144" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB144" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17930,6 +18923,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y145" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB145" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -17979,6 +18976,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y146" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB146" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18028,6 +19029,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y147" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB147" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18077,6 +19082,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y148" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB148" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18126,6 +19135,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y149" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB149" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18175,6 +19188,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y150" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB150" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18224,6 +19241,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y151" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB151" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18273,6 +19294,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y152" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB152" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18322,6 +19347,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y153" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB153" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18371,6 +19400,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y154" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB154" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18420,6 +19453,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y155" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB155" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18469,6 +19506,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y156" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB156" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18518,6 +19559,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y157" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB157" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18567,6 +19612,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y158" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB158" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18616,6 +19665,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y159" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB159" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18665,6 +19718,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y160" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB160" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18714,6 +19771,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y161" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB161" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18763,6 +19824,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y162" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB162" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18812,6 +19877,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y163" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB163" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18861,6 +19930,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y164" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB164" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18910,6 +19983,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y165" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB165" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -18959,6 +20036,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y166" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB166" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19008,6 +20089,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y167" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB167" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19057,6 +20142,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y168" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB168" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19106,6 +20195,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y169" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB169" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19155,6 +20248,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y170" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB170" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19204,6 +20301,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y171" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB171" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19253,6 +20354,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y172" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB172" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19302,6 +20407,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y173" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB173" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19351,6 +20460,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y174" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB174" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19400,6 +20513,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y175" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB175" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19449,6 +20566,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y176" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB176" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19498,6 +20619,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y177" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB177" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19547,6 +20672,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y178" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB178" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19596,6 +20725,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y179" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB179" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19645,6 +20778,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y180" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB180" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19694,6 +20831,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y181" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB181" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19743,6 +20884,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y182" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB182" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19792,6 +20937,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y183" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB183" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19841,6 +20990,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y184" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB184" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19890,6 +21043,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y185" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB185" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19939,6 +21096,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y186" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB186" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -19988,6 +21149,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y187" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB187" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20037,6 +21202,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y188" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB188" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20086,6 +21255,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y189" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB189" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20135,6 +21308,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y190" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB190" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20184,6 +21361,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y191" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB191" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20233,6 +21414,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y192" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB192" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20282,6 +21467,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y193" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB193" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20331,6 +21520,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y194" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB194" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20380,6 +21573,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y195" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB195" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20429,6 +21626,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y196" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB196" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20478,6 +21679,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y197" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB197" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20527,6 +21732,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y198" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB198" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20576,6 +21785,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y199" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB199" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20625,6 +21838,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y200" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB200" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20674,6 +21891,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y201" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB201" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20684,6 +21905,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y202" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB202" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20694,6 +21919,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y203" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB203" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20704,6 +21933,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y204" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB204" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20714,6 +21947,10 @@
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
       </c>
+      <c r="Y205" t="str">
+        <f ca="1"/>
+        <v xml:space="preserve"> - - </v>
+      </c>
       <c r="AB205" t="str">
         <f ca="1"/>
         <v xml:space="preserve"> - - </v>
@@ -20724,7 +21961,2797 @@
         <f ca="1"/>
         <v>0</v>
       </c>
+      <c r="Y206">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
       <c r="AB206">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X207">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="X208">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X209">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X210">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X211">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB211">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X212">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB212">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X213">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB213">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X214">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X215">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X216">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB216">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X217">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X218">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB218">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X219">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X220">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X221">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB221">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X222">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X223">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X224">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X225">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X226">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X227">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X228">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X229">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X230">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X231">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X232">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X234">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB234">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X235">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB235">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X236">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB236">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X237">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB237">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X238">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB238">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X239">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB239">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X240">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X241">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB241">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X242">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB242">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X243">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB243">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X244">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB244">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X245">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB245">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X246">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB246">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X247">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB247">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X248">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB248">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X249">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB249">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X250">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X251">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB251">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X252">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB252">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X253">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB253">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X254">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB254">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X255">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB255">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X256">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB256">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X257">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB257">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X258">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB258">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X259">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB259">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X260">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB260">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X261">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB261">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X262">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB262">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X263">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB263">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X264">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB264">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X265">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB265">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X266">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB266">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X267">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB267">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X268">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB268">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X269">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB269">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X270">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB270">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X271">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y271">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB271">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X272">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB272">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X273">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB273">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X274">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB274">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X275">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB275">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X276">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB276">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X277">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB277">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X278">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y278">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB278">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X279">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y279">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB279">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X280">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB280">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X281">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB281">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X282">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB282">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X283">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB283">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X284">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB284">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X285">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB285">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X286">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB286">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X287">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB287">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X288">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB288">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X289">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB289">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X290">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB290">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X291">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB291">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X292">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB292">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X293">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB293">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X294">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB294">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X295">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB295">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X296">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB296">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X297">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB297">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X298">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB298">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X299">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB299">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X300">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB300">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X301">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB301">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X302">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB302">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X303">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB303">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X304">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB304">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X305">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB305">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X306">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB306">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X307">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB307">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X308">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB308">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X309">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB309">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X310">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB310">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X311">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB311">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X312">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB312">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X313">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y313">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB313">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X314">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y314">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB314">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X315">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB315">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X316">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB316">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X317">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB317">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X318">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y318">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB318">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X319">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y319">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB319">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X320">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y320">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB320">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X321">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y321">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB321">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X322">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y322">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB322">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X323">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y323">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB323">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X324">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB324">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X325">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB325">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X326">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB326">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X327">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB327">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X328">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB328">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X329">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB329">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X330">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB330">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X331">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB331">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X332">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB332">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X333">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB333">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X334">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB334">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X335">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB335">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X336">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB336">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X337">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB337">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X338">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB338">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X339">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB339">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X340">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB340">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X341">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB341">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X342">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB342">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X343">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB343">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X344">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB344">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X345">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB345">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X346">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB346">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X347">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB347">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X348">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB348">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X349">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y349">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB349">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X350">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y350">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB350">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X351">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y351">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB351">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X352">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y352">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB352">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X353">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y353">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB353">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X354">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y354">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB354">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X355">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y355">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB355">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X356">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y356">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB356">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X357">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y357">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB357">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X358">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y358">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB358">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X359">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y359">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB359">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X360">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y360">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB360">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X361">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB361">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X362">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB362">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X363">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB363">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X364">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB364">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X365">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB365">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X366">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB366">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X367">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB367">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X368">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB368">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X369">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB369">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X370">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB370">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X371">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y371">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB371">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X372">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y372">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB372">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X373">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y373">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB373">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X374">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y374">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB374">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X375">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y375">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB375">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X376">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y376">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB376">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X377">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y377">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB377">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X378">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y378">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB378">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X379">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y379">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB379">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X380">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y380">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB380">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X381">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y381">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB381">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X382">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y382">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB382">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X383">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y383">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB383">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X384">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y384">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB384">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X385">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y385">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB385">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X386">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y386">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB386">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X387">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y387">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB387">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X388">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y388">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB388">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X389">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y389">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB389">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X390">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y390">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB390">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X391">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y391">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB391">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X392">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y392">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB392">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X393">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y393">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB393">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X394">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y394">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB394">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X395">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y395">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB395">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X396">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y396">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB396">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X397">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y397">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB397">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X398">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y398">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB398">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X399">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y399">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB399">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X400">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y400">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB400">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X401">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y401">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB401">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X402">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y402">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB402">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X403">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y403">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB403">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X404">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y404">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB404">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X405">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y405">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB405">
         <f ca="1"/>
         <v>0</v>
       </c>
